--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu xuat kho/WF0012 Cap nhat phieu xuat kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu xuat kho/WF0012 Cap nhat phieu xuat kho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat phieu xuat kho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Difination'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
@@ -975,7 +975,7 @@
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -989,7 +989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1003,7 +1003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1017,7 +1017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1027,20 +1027,6 @@
             <family val="2"/>
           </rPr>
           <t>Người cập nhật tài liệu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên màn hình
-</t>
         </r>
       </text>
     </comment>
@@ -1062,22 +1048,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Tên màn hình
 </t>
         </r>
       </text>
@@ -1106,7 +1082,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1119,10 +1119,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1170,7 +1170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1410,7 +1410,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1438,7 +1438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1462,20 +1462,6 @@
             <family val="2"/>
           </rPr>
           <t>Người cập nhật tài liệu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tên màn hình
-</t>
         </r>
       </text>
     </comment>
@@ -1497,22 +1483,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Tên màn hình
 </t>
         </r>
       </text>
@@ -1541,7 +1517,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ngày tạo tài liệu</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1558,7 +1558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1573,7 +1573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1591,7 +1591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1619,7 +1619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1657,7 +1657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1975,7 +1975,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="375">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3620,6 +3620,15 @@
  Click LinkEdit  thực thi câu @SQL013 kiểm tra điều kiện IsWeb 
 + Nếu =1 Warn message WFML000186, Click Ok thực hiện @SQL004 load Form WF0012 chỉ Enabled các trường RefNo01, RefNo02, Description,  RDAddress, ContactPerson, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại thì disabled. click No thì thoát khỏi ra
 + Nếu =0 thực thi @SQL004 load giá trị cho Form WF0012</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Ver 7.0</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
   </si>
 </sst>
 </file>
@@ -4120,7 +4129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="412">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4960,6 +4969,81 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4981,6 +5065,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5014,41 +5101,23 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5068,24 +5137,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5119,6 +5170,15 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5140,6 +5200,45 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5176,39 +5275,15 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5220,66 +5295,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5811,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:J11"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5831,10 +5846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5861,8 +5876,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="326"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5913,14 +5928,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="322" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="327"/>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="327"/>
-      <c r="J4" s="327"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -5937,14 +5952,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="328" t="s">
+      <c r="E5" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="329"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="329"/>
-      <c r="J5" s="329"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -5959,14 +5974,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="330" t="s">
+      <c r="E6" s="325" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="332"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="326"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="327"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112">
@@ -5981,14 +5996,14 @@
       <c r="D7" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="333" t="s">
+      <c r="E7" s="328" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="334"/>
-      <c r="G7" s="334"/>
-      <c r="H7" s="334"/>
-      <c r="I7" s="334"/>
-      <c r="J7" s="334"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="329"/>
+      <c r="J7" s="329"/>
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6003,14 +6018,14 @@
       <c r="D8" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="323" t="s">
+      <c r="E8" s="318" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="324"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="325"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="320"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -6025,14 +6040,14 @@
       <c r="D9" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="E9" s="306" t="s">
+      <c r="E9" s="331" t="s">
         <v>316</v>
       </c>
-      <c r="F9" s="307"/>
-      <c r="G9" s="307"/>
-      <c r="H9" s="307"/>
-      <c r="I9" s="307"/>
-      <c r="J9" s="308"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="332"/>
+      <c r="J9" s="333"/>
     </row>
     <row r="10" spans="1:10" s="287" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -6047,14 +6062,14 @@
       <c r="D10" s="118" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="309" t="s">
+      <c r="E10" s="334" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="310"/>
-      <c r="G10" s="310"/>
-      <c r="H10" s="310"/>
-      <c r="I10" s="310"/>
-      <c r="J10" s="311"/>
+      <c r="F10" s="335"/>
+      <c r="G10" s="335"/>
+      <c r="H10" s="335"/>
+      <c r="I10" s="335"/>
+      <c r="J10" s="336"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -6069,14 +6084,14 @@
       <c r="D11" s="121" t="s">
         <v>357</v>
       </c>
-      <c r="E11" s="392" t="s">
+      <c r="E11" s="337" t="s">
         <v>370</v>
       </c>
-      <c r="F11" s="312"/>
-      <c r="G11" s="312"/>
-      <c r="H11" s="312"/>
-      <c r="I11" s="312"/>
-      <c r="J11" s="313"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="339"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -6087,12 +6102,12 @@
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="124"/>
-      <c r="E12" s="314"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="315"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="315"/>
-      <c r="J12" s="316"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="341"/>
+      <c r="G12" s="341"/>
+      <c r="H12" s="341"/>
+      <c r="I12" s="341"/>
+      <c r="J12" s="342"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -6103,12 +6118,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="317"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="319"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="344"/>
+      <c r="G13" s="344"/>
+      <c r="H13" s="344"/>
+      <c r="I13" s="344"/>
+      <c r="J13" s="345"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -6119,357 +6134,373 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="321"/>
-      <c r="G14" s="321"/>
-      <c r="H14" s="321"/>
-      <c r="I14" s="321"/>
-      <c r="J14" s="322"/>
+      <c r="E14" s="346"/>
+      <c r="F14" s="347"/>
+      <c r="G14" s="347"/>
+      <c r="H14" s="347"/>
+      <c r="I14" s="347"/>
+      <c r="J14" s="348"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="305"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="305"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="305"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="330"/>
+      <c r="J15" s="330"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="305"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="305"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="330"/>
+      <c r="J16" s="330"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="305"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="305"/>
-      <c r="I17" s="305"/>
-      <c r="J17" s="305"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="305"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
+      <c r="J18" s="330"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="305"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="305"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="330"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="305"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="305"/>
-      <c r="H20" s="305"/>
-      <c r="I20" s="305"/>
-      <c r="J20" s="305"/>
+      <c r="E20" s="330"/>
+      <c r="F20" s="330"/>
+      <c r="G20" s="330"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
+      <c r="J20" s="330"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="305"/>
-      <c r="H21" s="305"/>
-      <c r="I21" s="305"/>
-      <c r="J21" s="305"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="305"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="305"/>
-      <c r="H22" s="305"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="305"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="330"/>
+      <c r="G22" s="330"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="330"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="305"/>
-      <c r="F23" s="305"/>
-      <c r="G23" s="305"/>
-      <c r="H23" s="305"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="305"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="330"/>
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="305"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="305"/>
-      <c r="H24" s="305"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="305"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="330"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
+      <c r="J24" s="330"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="305"/>
-      <c r="F25" s="305"/>
-      <c r="G25" s="305"/>
-      <c r="H25" s="305"/>
-      <c r="I25" s="305"/>
-      <c r="J25" s="305"/>
+      <c r="E25" s="330"/>
+      <c r="F25" s="330"/>
+      <c r="G25" s="330"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="305"/>
-      <c r="H26" s="305"/>
-      <c r="I26" s="305"/>
-      <c r="J26" s="305"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
+      <c r="J26" s="330"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="E27" s="330"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="330"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="330"/>
+      <c r="J27" s="330"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="305"/>
-      <c r="H28" s="305"/>
-      <c r="I28" s="305"/>
-      <c r="J28" s="305"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="330"/>
+      <c r="J28" s="330"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="305"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="330"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="305"/>
-      <c r="G30" s="305"/>
-      <c r="H30" s="305"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="305"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
+      <c r="J30" s="330"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="305"/>
-      <c r="G31" s="305"/>
-      <c r="H31" s="305"/>
-      <c r="I31" s="305"/>
-      <c r="J31" s="305"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="305"/>
-      <c r="F32" s="305"/>
-      <c r="G32" s="305"/>
-      <c r="H32" s="305"/>
-      <c r="I32" s="305"/>
-      <c r="J32" s="305"/>
+      <c r="E32" s="330"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="305"/>
-      <c r="F33" s="305"/>
-      <c r="G33" s="305"/>
-      <c r="H33" s="305"/>
-      <c r="I33" s="305"/>
-      <c r="J33" s="305"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
+      <c r="G33" s="330"/>
+      <c r="H33" s="330"/>
+      <c r="I33" s="330"/>
+      <c r="J33" s="330"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="305"/>
-      <c r="F34" s="305"/>
-      <c r="G34" s="305"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="305"/>
-      <c r="J34" s="305"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
+      <c r="J34" s="330"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="305"/>
-      <c r="F35" s="305"/>
-      <c r="G35" s="305"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="305"/>
-      <c r="J35" s="305"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="330"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
-      <c r="H36" s="305"/>
-      <c r="I36" s="305"/>
-      <c r="J36" s="305"/>
+      <c r="E36" s="330"/>
+      <c r="F36" s="330"/>
+      <c r="G36" s="330"/>
+      <c r="H36" s="330"/>
+      <c r="I36" s="330"/>
+      <c r="J36" s="330"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="305"/>
-      <c r="F37" s="305"/>
-      <c r="G37" s="305"/>
-      <c r="H37" s="305"/>
-      <c r="I37" s="305"/>
-      <c r="J37" s="305"/>
+      <c r="E37" s="330"/>
+      <c r="F37" s="330"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="330"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="305"/>
-      <c r="F38" s="305"/>
-      <c r="G38" s="305"/>
-      <c r="H38" s="305"/>
-      <c r="I38" s="305"/>
-      <c r="J38" s="305"/>
+      <c r="E38" s="330"/>
+      <c r="F38" s="330"/>
+      <c r="G38" s="330"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="330"/>
+      <c r="J38" s="330"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="305"/>
-      <c r="F39" s="305"/>
-      <c r="G39" s="305"/>
-      <c r="H39" s="305"/>
-      <c r="I39" s="305"/>
-      <c r="J39" s="305"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
+      <c r="J39" s="330"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="305"/>
-      <c r="F40" s="305"/>
-      <c r="G40" s="305"/>
-      <c r="H40" s="305"/>
-      <c r="I40" s="305"/>
-      <c r="J40" s="305"/>
+      <c r="E40" s="330"/>
+      <c r="F40" s="330"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="330"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="305"/>
-      <c r="F41" s="305"/>
-      <c r="G41" s="305"/>
-      <c r="H41" s="305"/>
-      <c r="I41" s="305"/>
-      <c r="J41" s="305"/>
+      <c r="E41" s="330"/>
+      <c r="F41" s="330"/>
+      <c r="G41" s="330"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="330"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="305"/>
-      <c r="F42" s="305"/>
-      <c r="G42" s="305"/>
-      <c r="H42" s="305"/>
-      <c r="I42" s="305"/>
-      <c r="J42" s="305"/>
+      <c r="E42" s="330"/>
+      <c r="F42" s="330"/>
+      <c r="G42" s="330"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
+      <c r="J42" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E10:J10"/>
@@ -6482,28 +6513,12 @@
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6712,10 +6727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6746,8 +6761,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="326"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -6790,72 +6805,72 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
-      <c r="H4" s="326"/>
-      <c r="I4" s="326" t="s">
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="326"/>
+      <c r="J4" s="321"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="335"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="336"/>
-      <c r="G5" s="336"/>
-      <c r="H5" s="337"/>
-      <c r="I5" s="341" t="s">
+      <c r="A5" s="355"/>
+      <c r="B5" s="356"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
+      <c r="H5" s="357"/>
+      <c r="I5" s="349" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="342"/>
+      <c r="J5" s="350"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="338"/>
-      <c r="B6" s="339"/>
-      <c r="C6" s="339"/>
-      <c r="D6" s="339"/>
-      <c r="E6" s="339"/>
-      <c r="F6" s="339"/>
-      <c r="G6" s="339"/>
-      <c r="H6" s="340"/>
-      <c r="I6" s="343" t="s">
+      <c r="A6" s="358"/>
+      <c r="B6" s="359"/>
+      <c r="C6" s="359"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="351" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="344"/>
+      <c r="J6" s="352"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="338"/>
-      <c r="B7" s="339"/>
-      <c r="C7" s="339"/>
-      <c r="D7" s="339"/>
-      <c r="E7" s="339"/>
-      <c r="F7" s="339"/>
-      <c r="G7" s="339"/>
-      <c r="H7" s="340"/>
-      <c r="I7" s="345" t="s">
+      <c r="A7" s="358"/>
+      <c r="B7" s="359"/>
+      <c r="C7" s="359"/>
+      <c r="D7" s="359"/>
+      <c r="E7" s="359"/>
+      <c r="F7" s="359"/>
+      <c r="G7" s="359"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="353" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="346"/>
+      <c r="J7" s="354"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="338"/>
-      <c r="B8" s="339"/>
-      <c r="C8" s="339"/>
-      <c r="D8" s="339"/>
-      <c r="E8" s="339"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="340"/>
+      <c r="A8" s="358"/>
+      <c r="B8" s="359"/>
+      <c r="C8" s="359"/>
+      <c r="D8" s="359"/>
+      <c r="E8" s="359"/>
+      <c r="F8" s="359"/>
+      <c r="G8" s="359"/>
+      <c r="H8" s="360"/>
       <c r="I8" s="189" t="s">
         <v>241</v>
       </c>
@@ -6938,339 +6953,358 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="305"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="305"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="305"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="330"/>
+      <c r="J15" s="330"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="305"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="305"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="330"/>
+      <c r="J16" s="330"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="305"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="305"/>
-      <c r="I17" s="305"/>
-      <c r="J17" s="305"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="305"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
+      <c r="J18" s="330"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="305"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="305"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="330"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="305"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="305"/>
-      <c r="H20" s="305"/>
-      <c r="I20" s="305"/>
-      <c r="J20" s="305"/>
+      <c r="E20" s="330"/>
+      <c r="F20" s="330"/>
+      <c r="G20" s="330"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
+      <c r="J20" s="330"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="305"/>
-      <c r="H21" s="305"/>
-      <c r="I21" s="305"/>
-      <c r="J21" s="305"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="305"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="305"/>
-      <c r="H22" s="305"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="305"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="330"/>
+      <c r="G22" s="330"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="330"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="305"/>
-      <c r="F23" s="305"/>
-      <c r="G23" s="305"/>
-      <c r="H23" s="305"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="305"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="330"/>
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="305"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="305"/>
-      <c r="H24" s="305"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="305"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="330"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
+      <c r="J24" s="330"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="305"/>
-      <c r="F25" s="305"/>
-      <c r="G25" s="305"/>
-      <c r="H25" s="305"/>
-      <c r="I25" s="305"/>
-      <c r="J25" s="305"/>
+      <c r="E25" s="330"/>
+      <c r="F25" s="330"/>
+      <c r="G25" s="330"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="305"/>
-      <c r="H26" s="305"/>
-      <c r="I26" s="305"/>
-      <c r="J26" s="305"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
+      <c r="J26" s="330"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="E27" s="330"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="330"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="330"/>
+      <c r="J27" s="330"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="305"/>
-      <c r="H28" s="305"/>
-      <c r="I28" s="305"/>
-      <c r="J28" s="305"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="330"/>
+      <c r="J28" s="330"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="305"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="330"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="305"/>
-      <c r="G30" s="305"/>
-      <c r="H30" s="305"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="305"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
+      <c r="J30" s="330"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="305"/>
-      <c r="G31" s="305"/>
-      <c r="H31" s="305"/>
-      <c r="I31" s="305"/>
-      <c r="J31" s="305"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="305"/>
-      <c r="F32" s="305"/>
-      <c r="G32" s="305"/>
-      <c r="H32" s="305"/>
-      <c r="I32" s="305"/>
-      <c r="J32" s="305"/>
+      <c r="E32" s="330"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="305"/>
-      <c r="F33" s="305"/>
-      <c r="G33" s="305"/>
-      <c r="H33" s="305"/>
-      <c r="I33" s="305"/>
-      <c r="J33" s="305"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
+      <c r="G33" s="330"/>
+      <c r="H33" s="330"/>
+      <c r="I33" s="330"/>
+      <c r="J33" s="330"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="305"/>
-      <c r="F34" s="305"/>
-      <c r="G34" s="305"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="305"/>
-      <c r="J34" s="305"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
+      <c r="J34" s="330"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="305"/>
-      <c r="F35" s="305"/>
-      <c r="G35" s="305"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="305"/>
-      <c r="J35" s="305"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="330"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
-      <c r="H36" s="305"/>
-      <c r="I36" s="305"/>
-      <c r="J36" s="305"/>
+      <c r="E36" s="330"/>
+      <c r="F36" s="330"/>
+      <c r="G36" s="330"/>
+      <c r="H36" s="330"/>
+      <c r="I36" s="330"/>
+      <c r="J36" s="330"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="305"/>
-      <c r="F37" s="305"/>
-      <c r="G37" s="305"/>
-      <c r="H37" s="305"/>
-      <c r="I37" s="305"/>
-      <c r="J37" s="305"/>
+      <c r="E37" s="330"/>
+      <c r="F37" s="330"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="330"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="305"/>
-      <c r="F38" s="305"/>
-      <c r="G38" s="305"/>
-      <c r="H38" s="305"/>
-      <c r="I38" s="305"/>
-      <c r="J38" s="305"/>
+      <c r="E38" s="330"/>
+      <c r="F38" s="330"/>
+      <c r="G38" s="330"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="330"/>
+      <c r="J38" s="330"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="305"/>
-      <c r="F39" s="305"/>
-      <c r="G39" s="305"/>
-      <c r="H39" s="305"/>
-      <c r="I39" s="305"/>
-      <c r="J39" s="305"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
+      <c r="J39" s="330"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="305"/>
-      <c r="F40" s="305"/>
-      <c r="G40" s="305"/>
-      <c r="H40" s="305"/>
-      <c r="I40" s="305"/>
-      <c r="J40" s="305"/>
+      <c r="E40" s="330"/>
+      <c r="F40" s="330"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="330"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="305"/>
-      <c r="F41" s="305"/>
-      <c r="G41" s="305"/>
-      <c r="H41" s="305"/>
-      <c r="I41" s="305"/>
-      <c r="J41" s="305"/>
+      <c r="E41" s="330"/>
+      <c r="F41" s="330"/>
+      <c r="G41" s="330"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="330"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="305"/>
-      <c r="F42" s="305"/>
-      <c r="G42" s="305"/>
-      <c r="H42" s="305"/>
-      <c r="I42" s="305"/>
-      <c r="J42" s="305"/>
+      <c r="E42" s="330"/>
+      <c r="F42" s="330"/>
+      <c r="G42" s="330"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
+      <c r="J42" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A5:H8"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
@@ -7287,25 +7321,6 @@
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A5:H8"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -7347,10 +7362,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="347"/>
+      <c r="B1" s="361"/>
       <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
@@ -7375,18 +7390,18 @@
       <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="348" t="str">
+      <c r="J1" s="362" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="349"/>
+      <c r="K1" s="363"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="347"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="361"/>
       <c r="C2" s="128" t="s">
         <v>7</v>
       </c>
@@ -7411,11 +7426,11 @@
       <c r="I2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="350">
+      <c r="J2" s="364">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="351"/>
+      <c r="K2" s="365"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -8117,7 +8132,7 @@
       <c r="N27" s="155"/>
     </row>
     <row r="28" spans="1:14" s="217" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="352" t="s">
+      <c r="A28" s="366" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="218">
@@ -8151,7 +8166,7 @@
       <c r="N28" s="216"/>
     </row>
     <row r="29" spans="1:14" s="217" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="353"/>
+      <c r="A29" s="367"/>
       <c r="B29" s="218">
         <v>42</v>
       </c>
@@ -9160,93 +9175,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" customWidth="1"/>
-    <col min="5" max="6" width="21.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="3" width="7.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
+    <col min="7" max="8" width="21.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="F1" s="13" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="str">
+      <c r="H1" s="125" t="str">
         <f>'Update History'!F1</f>
         <v>WF0012</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="str">
+      <c r="J1" s="14" t="str">
         <f>'Update History'!H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126" t="str">
+      <c r="L1" s="126" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="326"/>
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="F2" s="13" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="H2" s="13" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật phiếu xuất kho</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="15">
+      <c r="J2" s="15">
         <f>'Update History'!H2</f>
         <v>42174</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15">
+      <c r="L2" s="15">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -9257,546 +9276,634 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="305" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="305" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="F4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="G4" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="H4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="357" t="s">
+      <c r="J4" s="371" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="393"/>
-      <c r="B5" s="394" t="s">
+      <c r="K4" s="371"/>
+      <c r="L4" s="371"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="307"/>
+      <c r="B5" s="307" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="307">
+        <v>51</v>
+      </c>
+      <c r="D5" s="308" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="395" t="s">
+      <c r="E5" s="309" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="396"/>
-      <c r="E5" s="397"/>
-      <c r="F5" s="398" t="s">
+      <c r="F5" s="310"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="312" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="398" t="s">
+      <c r="I5" s="312" t="s">
         <v>361</v>
       </c>
-      <c r="H5" s="399" t="s">
+      <c r="J5" s="372" t="s">
         <v>362</v>
       </c>
-      <c r="I5" s="400"/>
-      <c r="J5" s="401"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="373"/>
+      <c r="L5" s="374"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="55"/>
-      <c r="H6" s="354"/>
-      <c r="I6" s="355"/>
-      <c r="J6" s="356"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="368"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="370"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="51"/>
-      <c r="H7" s="354"/>
-      <c r="I7" s="355"/>
-      <c r="J7" s="356"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="368"/>
+      <c r="K7" s="369"/>
+      <c r="L7" s="370"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="354"/>
-      <c r="I8" s="355"/>
-      <c r="J8" s="356"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="368"/>
+      <c r="K8" s="369"/>
+      <c r="L8" s="370"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="51"/>
-      <c r="H9" s="354"/>
-      <c r="I9" s="355"/>
-      <c r="J9" s="356"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="368"/>
+      <c r="K9" s="369"/>
+      <c r="L9" s="370"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="354"/>
-      <c r="I10" s="355"/>
-      <c r="J10" s="356"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="370"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="354"/>
-      <c r="I11" s="355"/>
-      <c r="J11" s="356"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="368"/>
+      <c r="K11" s="369"/>
+      <c r="L11" s="370"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="355"/>
-      <c r="J12" s="356"/>
-    </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="368"/>
+      <c r="K12" s="369"/>
+      <c r="L12" s="370"/>
+    </row>
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="55"/>
-      <c r="H13" s="354"/>
-      <c r="I13" s="355"/>
-      <c r="J13" s="356"/>
-    </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="368"/>
+      <c r="K13" s="369"/>
+      <c r="L13" s="370"/>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="55"/>
-      <c r="H14" s="354"/>
-      <c r="I14" s="355"/>
-      <c r="J14" s="356"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="368"/>
+      <c r="K14" s="369"/>
+      <c r="L14" s="370"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="305"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="305"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="305"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="330"/>
+      <c r="J15" s="330"/>
+      <c r="K15" s="330"/>
+      <c r="L15" s="330"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="305"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="305"/>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="330"/>
+      <c r="J16" s="330"/>
+      <c r="K16" s="330"/>
+      <c r="L16" s="330"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="305"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="305"/>
-      <c r="I17" s="305"/>
-      <c r="J17" s="305"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
+      <c r="K17" s="330"/>
+      <c r="L17" s="330"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="305"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
+      <c r="J18" s="330"/>
+      <c r="K18" s="330"/>
+      <c r="L18" s="330"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="305"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="305"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="330"/>
+      <c r="K19" s="330"/>
+      <c r="L19" s="330"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="305"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="305"/>
-      <c r="H20" s="305"/>
-      <c r="I20" s="305"/>
-      <c r="J20" s="305"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="330"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
+      <c r="J20" s="330"/>
+      <c r="K20" s="330"/>
+      <c r="L20" s="330"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="305"/>
-      <c r="H21" s="305"/>
-      <c r="I21" s="305"/>
-      <c r="J21" s="305"/>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330"/>
+      <c r="K21" s="330"/>
+      <c r="L21" s="330"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="305"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="305"/>
-      <c r="H22" s="305"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="305"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="330"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="330"/>
+      <c r="K22" s="330"/>
+      <c r="L22" s="330"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="305"/>
-      <c r="F23" s="305"/>
-      <c r="G23" s="305"/>
-      <c r="H23" s="305"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="305"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
+      <c r="K23" s="330"/>
+      <c r="L23" s="330"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="305"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="305"/>
-      <c r="H24" s="305"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="305"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
+      <c r="J24" s="330"/>
+      <c r="K24" s="330"/>
+      <c r="L24" s="330"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="305"/>
-      <c r="F25" s="305"/>
-      <c r="G25" s="305"/>
-      <c r="H25" s="305"/>
-      <c r="I25" s="305"/>
-      <c r="J25" s="305"/>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="330"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330"/>
+      <c r="K25" s="330"/>
+      <c r="L25" s="330"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="305"/>
-      <c r="H26" s="305"/>
-      <c r="I26" s="305"/>
-      <c r="J26" s="305"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
+      <c r="J26" s="330"/>
+      <c r="K26" s="330"/>
+      <c r="L26" s="330"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="330"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="330"/>
+      <c r="J27" s="330"/>
+      <c r="K27" s="330"/>
+      <c r="L27" s="330"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="305"/>
-      <c r="H28" s="305"/>
-      <c r="I28" s="305"/>
-      <c r="J28" s="305"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="330"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="330"/>
+      <c r="J28" s="330"/>
+      <c r="K28" s="330"/>
+      <c r="L28" s="330"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="305"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="330"/>
+      <c r="K29" s="330"/>
+      <c r="L29" s="330"/>
+    </row>
+    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="305"/>
-      <c r="G30" s="305"/>
-      <c r="H30" s="305"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="305"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
+      <c r="J30" s="330"/>
+      <c r="K30" s="330"/>
+      <c r="L30" s="330"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="305"/>
-      <c r="G31" s="305"/>
-      <c r="H31" s="305"/>
-      <c r="I31" s="305"/>
-      <c r="J31" s="305"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="330"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
+      <c r="K31" s="330"/>
+      <c r="L31" s="330"/>
+    </row>
+    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="305"/>
-      <c r="F32" s="305"/>
-      <c r="G32" s="305"/>
-      <c r="H32" s="305"/>
-      <c r="I32" s="305"/>
-      <c r="J32" s="305"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
+      <c r="K32" s="330"/>
+      <c r="L32" s="330"/>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="305"/>
-      <c r="F33" s="305"/>
-      <c r="G33" s="305"/>
-      <c r="H33" s="305"/>
-      <c r="I33" s="305"/>
-      <c r="J33" s="305"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="330"/>
+      <c r="H33" s="330"/>
+      <c r="I33" s="330"/>
+      <c r="J33" s="330"/>
+      <c r="K33" s="330"/>
+      <c r="L33" s="330"/>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="305"/>
-      <c r="F34" s="305"/>
-      <c r="G34" s="305"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="305"/>
-      <c r="J34" s="305"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
+      <c r="J34" s="330"/>
+      <c r="K34" s="330"/>
+      <c r="L34" s="330"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="305"/>
-      <c r="F35" s="305"/>
-      <c r="G35" s="305"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="305"/>
-      <c r="J35" s="305"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="330"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="330"/>
+      <c r="K35" s="330"/>
+      <c r="L35" s="330"/>
+    </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
-      <c r="H36" s="305"/>
-      <c r="I36" s="305"/>
-      <c r="J36" s="305"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="330"/>
+      <c r="H36" s="330"/>
+      <c r="I36" s="330"/>
+      <c r="J36" s="330"/>
+      <c r="K36" s="330"/>
+      <c r="L36" s="330"/>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="305"/>
-      <c r="F37" s="305"/>
-      <c r="G37" s="305"/>
-      <c r="H37" s="305"/>
-      <c r="I37" s="305"/>
-      <c r="J37" s="305"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="330"/>
+      <c r="K37" s="330"/>
+      <c r="L37" s="330"/>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="305"/>
-      <c r="F38" s="305"/>
-      <c r="G38" s="305"/>
-      <c r="H38" s="305"/>
-      <c r="I38" s="305"/>
-      <c r="J38" s="305"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="330"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="330"/>
+      <c r="J38" s="330"/>
+      <c r="K38" s="330"/>
+      <c r="L38" s="330"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="305"/>
-      <c r="F39" s="305"/>
-      <c r="G39" s="305"/>
-      <c r="H39" s="305"/>
-      <c r="I39" s="305"/>
-      <c r="J39" s="305"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
+      <c r="J39" s="330"/>
+      <c r="K39" s="330"/>
+      <c r="L39" s="330"/>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="305"/>
-      <c r="F40" s="305"/>
-      <c r="G40" s="305"/>
-      <c r="H40" s="305"/>
-      <c r="I40" s="305"/>
-      <c r="J40" s="305"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="330"/>
+      <c r="K40" s="330"/>
+      <c r="L40" s="330"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="305"/>
-      <c r="F41" s="305"/>
-      <c r="G41" s="305"/>
-      <c r="H41" s="305"/>
-      <c r="I41" s="305"/>
-      <c r="J41" s="305"/>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="330"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="330"/>
+      <c r="K41" s="330"/>
+      <c r="L41" s="330"/>
+    </row>
+    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="305"/>
-      <c r="F42" s="305"/>
-      <c r="G42" s="305"/>
-      <c r="H42" s="305"/>
-      <c r="I42" s="305"/>
-      <c r="J42" s="305"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="330"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
+      <c r="J42" s="330"/>
+      <c r="K42" s="330"/>
+      <c r="L42" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9829,10 +9936,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9863,8 +9970,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="326"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9895,16 +10002,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="362"/>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="364"/>
+      <c r="A3" s="379"/>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="381"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -9919,16 +10026,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="358" t="s">
+      <c r="E4" s="375" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="358"/>
-      <c r="G4" s="359" t="s">
+      <c r="F4" s="375"/>
+      <c r="G4" s="376" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="360"/>
-      <c r="I4" s="360"/>
-      <c r="J4" s="361"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="378"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -10055,339 +10162,359 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="305"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="305"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="305"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="330"/>
+      <c r="J15" s="330"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="305"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="305"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="330"/>
+      <c r="J16" s="330"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="305"/>
-      <c r="F17" s="305"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="305"/>
-      <c r="I17" s="305"/>
-      <c r="J17" s="305"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="305"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="305"/>
-      <c r="H18" s="305"/>
-      <c r="I18" s="305"/>
-      <c r="J18" s="305"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
+      <c r="J18" s="330"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="305"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="305"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="330"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="305"/>
-      <c r="F20" s="305"/>
-      <c r="G20" s="305"/>
-      <c r="H20" s="305"/>
-      <c r="I20" s="305"/>
-      <c r="J20" s="305"/>
+      <c r="E20" s="330"/>
+      <c r="F20" s="330"/>
+      <c r="G20" s="330"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
+      <c r="J20" s="330"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="305"/>
-      <c r="H21" s="305"/>
-      <c r="I21" s="305"/>
-      <c r="J21" s="305"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
+      <c r="J21" s="330"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="305"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="305"/>
-      <c r="H22" s="305"/>
-      <c r="I22" s="305"/>
-      <c r="J22" s="305"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="330"/>
+      <c r="G22" s="330"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="330"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="305"/>
-      <c r="F23" s="305"/>
-      <c r="G23" s="305"/>
-      <c r="H23" s="305"/>
-      <c r="I23" s="305"/>
-      <c r="J23" s="305"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="330"/>
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
+      <c r="J23" s="330"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="305"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="305"/>
-      <c r="H24" s="305"/>
-      <c r="I24" s="305"/>
-      <c r="J24" s="305"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="330"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
+      <c r="J24" s="330"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="305"/>
-      <c r="F25" s="305"/>
-      <c r="G25" s="305"/>
-      <c r="H25" s="305"/>
-      <c r="I25" s="305"/>
-      <c r="J25" s="305"/>
+      <c r="E25" s="330"/>
+      <c r="F25" s="330"/>
+      <c r="G25" s="330"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="330"/>
+      <c r="J25" s="330"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="305"/>
-      <c r="H26" s="305"/>
-      <c r="I26" s="305"/>
-      <c r="J26" s="305"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
+      <c r="J26" s="330"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="E27" s="330"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="330"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="330"/>
+      <c r="J27" s="330"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="305"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="305"/>
-      <c r="H28" s="305"/>
-      <c r="I28" s="305"/>
-      <c r="J28" s="305"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="330"/>
+      <c r="J28" s="330"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="305"/>
-      <c r="G29" s="305"/>
-      <c r="H29" s="305"/>
-      <c r="I29" s="305"/>
-      <c r="J29" s="305"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
+      <c r="J29" s="330"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="305"/>
-      <c r="F30" s="305"/>
-      <c r="G30" s="305"/>
-      <c r="H30" s="305"/>
-      <c r="I30" s="305"/>
-      <c r="J30" s="305"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
+      <c r="J30" s="330"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="305"/>
-      <c r="F31" s="305"/>
-      <c r="G31" s="305"/>
-      <c r="H31" s="305"/>
-      <c r="I31" s="305"/>
-      <c r="J31" s="305"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="305"/>
-      <c r="F32" s="305"/>
-      <c r="G32" s="305"/>
-      <c r="H32" s="305"/>
-      <c r="I32" s="305"/>
-      <c r="J32" s="305"/>
+      <c r="E32" s="330"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="305"/>
-      <c r="F33" s="305"/>
-      <c r="G33" s="305"/>
-      <c r="H33" s="305"/>
-      <c r="I33" s="305"/>
-      <c r="J33" s="305"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
+      <c r="G33" s="330"/>
+      <c r="H33" s="330"/>
+      <c r="I33" s="330"/>
+      <c r="J33" s="330"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="305"/>
-      <c r="F34" s="305"/>
-      <c r="G34" s="305"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="305"/>
-      <c r="J34" s="305"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
+      <c r="J34" s="330"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="305"/>
-      <c r="F35" s="305"/>
-      <c r="G35" s="305"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="305"/>
-      <c r="J35" s="305"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
+      <c r="J35" s="330"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
-      <c r="H36" s="305"/>
-      <c r="I36" s="305"/>
-      <c r="J36" s="305"/>
+      <c r="E36" s="330"/>
+      <c r="F36" s="330"/>
+      <c r="G36" s="330"/>
+      <c r="H36" s="330"/>
+      <c r="I36" s="330"/>
+      <c r="J36" s="330"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="305"/>
-      <c r="F37" s="305"/>
-      <c r="G37" s="305"/>
-      <c r="H37" s="305"/>
-      <c r="I37" s="305"/>
-      <c r="J37" s="305"/>
+      <c r="E37" s="330"/>
+      <c r="F37" s="330"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="330"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="305"/>
-      <c r="F38" s="305"/>
-      <c r="G38" s="305"/>
-      <c r="H38" s="305"/>
-      <c r="I38" s="305"/>
-      <c r="J38" s="305"/>
+      <c r="E38" s="330"/>
+      <c r="F38" s="330"/>
+      <c r="G38" s="330"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="330"/>
+      <c r="J38" s="330"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="305"/>
-      <c r="F39" s="305"/>
-      <c r="G39" s="305"/>
-      <c r="H39" s="305"/>
-      <c r="I39" s="305"/>
-      <c r="J39" s="305"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
+      <c r="J39" s="330"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="305"/>
-      <c r="F40" s="305"/>
-      <c r="G40" s="305"/>
-      <c r="H40" s="305"/>
-      <c r="I40" s="305"/>
-      <c r="J40" s="305"/>
+      <c r="E40" s="330"/>
+      <c r="F40" s="330"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="330"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="305"/>
-      <c r="F41" s="305"/>
-      <c r="G41" s="305"/>
-      <c r="H41" s="305"/>
-      <c r="I41" s="305"/>
-      <c r="J41" s="305"/>
+      <c r="E41" s="330"/>
+      <c r="F41" s="330"/>
+      <c r="G41" s="330"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="330"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="305"/>
-      <c r="F42" s="305"/>
-      <c r="G42" s="305"/>
-      <c r="H42" s="305"/>
-      <c r="I42" s="305"/>
-      <c r="J42" s="305"/>
+      <c r="E42" s="330"/>
+      <c r="F42" s="330"/>
+      <c r="G42" s="330"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
+      <c r="J42" s="330"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
@@ -10400,26 +10527,6 @@
     <mergeCell ref="E28:J28"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
@@ -10434,1042 +10541,1133 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="16"/>
-    <col min="12" max="12" width="16.5703125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="45.5703125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="16" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="2" width="7.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="14" max="14" width="16.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="45.5703125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="16" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="F1" s="13" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="str">
+      <c r="H1" s="125" t="str">
         <f>'Update History'!F1</f>
         <v>WF0012</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="str">
+      <c r="J1" s="14" t="str">
         <f>'Update History'!H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126" t="str">
+      <c r="L1" s="126" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-    </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="326"/>
-      <c r="C2" s="46" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="F2" s="13" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-WM</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="H2" s="13" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật phiếu xuất kho</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="15">
+      <c r="J2" s="15">
         <f>'Update History'!H2</f>
         <v>42174</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15">
+      <c r="L2" s="15">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="362"/>
-      <c r="B3" s="363"/>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="364"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="379"/>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="381"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="306" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="306" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="F4" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="G4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="H4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="I4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="359" t="s">
+      <c r="K4" s="376" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="360"/>
-      <c r="K4" s="360"/>
-      <c r="L4" s="361"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="377"/>
+      <c r="M4" s="377"/>
+      <c r="N4" s="378"/>
+      <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="P4" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="Q4" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="R4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="S4" s="66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="156" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="156" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="154"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="161" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="161" t="s">
+      <c r="H5" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="161" t="s">
+      <c r="I5" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="H5" s="162" t="s">
+      <c r="J5" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="I5" s="378" t="s">
+      <c r="K5" s="383" t="s">
         <v>224</v>
       </c>
-      <c r="J5" s="379"/>
-      <c r="K5" s="379"/>
-      <c r="L5" s="380"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="166" t="s">
+      <c r="L5" s="384"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="385"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="166" t="s">
+      <c r="R5" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="Q5" s="155"/>
-    </row>
-    <row r="6" spans="1:17" s="156" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="155"/>
+    </row>
+    <row r="6" spans="1:19" s="156" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="157"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="150" t="s">
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="161" t="s">
+      <c r="H6" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="161" t="s">
+      <c r="I6" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="J6" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="I6" s="381" t="s">
+      <c r="K6" s="386" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="382"/>
-      <c r="K6" s="382"/>
-      <c r="L6" s="383"/>
-      <c r="M6" s="183" t="s">
+      <c r="L6" s="387"/>
+      <c r="M6" s="387"/>
+      <c r="N6" s="388"/>
+      <c r="O6" s="183" t="s">
         <v>230</v>
       </c>
-      <c r="N6" s="184" t="s">
+      <c r="P6" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
       <c r="Q6" s="155"/>
-    </row>
-    <row r="7" spans="1:17" s="156" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+    </row>
+    <row r="7" spans="1:19" s="156" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="151"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="186" t="s">
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="161" t="s">
+      <c r="H7" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="161" t="s">
+      <c r="I7" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="162" t="s">
+      <c r="J7" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="381" t="s">
+      <c r="K7" s="386" t="s">
         <v>246</v>
       </c>
-      <c r="J7" s="382"/>
-      <c r="K7" s="382"/>
-      <c r="L7" s="383"/>
-      <c r="M7" s="187" t="s">
+      <c r="L7" s="387"/>
+      <c r="M7" s="387"/>
+      <c r="N7" s="388"/>
+      <c r="O7" s="187" t="s">
         <v>234</v>
       </c>
-      <c r="N7" s="188" t="s">
+      <c r="P7" s="188" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
       <c r="Q7" s="155"/>
-    </row>
-    <row r="8" spans="1:17" s="156" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+    </row>
+    <row r="8" spans="1:19" s="156" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="157"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="186" t="s">
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="186" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="H8" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="161" t="s">
+      <c r="I8" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="162" t="s">
+      <c r="J8" s="162" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="378" t="s">
+      <c r="K8" s="383" t="s">
         <v>245</v>
       </c>
-      <c r="J8" s="379"/>
-      <c r="K8" s="379"/>
-      <c r="L8" s="380"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
+      <c r="L8" s="384"/>
+      <c r="M8" s="384"/>
+      <c r="N8" s="385"/>
       <c r="O8" s="155"/>
       <c r="P8" s="155"/>
       <c r="Q8" s="155"/>
-    </row>
-    <row r="9" spans="1:17" s="111" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+    </row>
+    <row r="9" spans="1:19" s="111" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="193"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="194" t="s">
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="194" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="384" t="s">
+      <c r="H9" s="195"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="389" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="385"/>
-      <c r="K9" s="385"/>
-      <c r="L9" s="386"/>
-      <c r="M9" s="197" t="s">
+      <c r="L9" s="390"/>
+      <c r="M9" s="390"/>
+      <c r="N9" s="391"/>
+      <c r="O9" s="197" t="s">
         <v>253</v>
       </c>
-      <c r="N9" s="197" t="s">
+      <c r="P9" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="O9" s="198"/>
-      <c r="P9" s="198"/>
       <c r="Q9" s="198"/>
-    </row>
-    <row r="10" spans="1:17" s="224" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+    </row>
+    <row r="10" spans="1:19" s="224" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="220"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="221" t="s">
+      <c r="B10" s="220"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="221" t="s">
         <v>288</v>
       </c>
-      <c r="F10" s="221" t="s">
+      <c r="H10" s="221" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="222" t="s">
+      <c r="I10" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="225" t="s">
+      <c r="J10" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="I10" s="323" t="s">
+      <c r="K10" s="318" t="s">
         <v>308</v>
       </c>
-      <c r="J10" s="324"/>
-      <c r="K10" s="324"/>
-      <c r="L10" s="325"/>
-      <c r="M10" s="225" t="s">
+      <c r="L10" s="319"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="320"/>
+      <c r="O10" s="225" t="s">
         <v>297</v>
       </c>
-      <c r="N10" s="225" t="s">
+      <c r="P10" s="225" t="s">
         <v>283</v>
       </c>
-      <c r="O10" s="223"/>
-      <c r="P10" s="223"/>
       <c r="Q10" s="223"/>
-    </row>
-    <row r="11" spans="1:17" s="224" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="223"/>
+      <c r="S10" s="223"/>
+    </row>
+    <row r="11" spans="1:19" s="224" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="220"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="221" t="s">
+      <c r="B11" s="220"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="221" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="221" t="s">
+      <c r="H11" s="221" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="222" t="s">
+      <c r="I11" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="225" t="s">
+      <c r="J11" s="225" t="s">
         <v>287</v>
       </c>
-      <c r="I11" s="365" t="s">
+      <c r="K11" s="395" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="366"/>
-      <c r="K11" s="366"/>
-      <c r="L11" s="367"/>
-      <c r="M11" s="225" t="s">
+      <c r="L11" s="396"/>
+      <c r="M11" s="396"/>
+      <c r="N11" s="397"/>
+      <c r="O11" s="225" t="s">
         <v>297</v>
       </c>
-      <c r="N11" s="225" t="s">
+      <c r="P11" s="225" t="s">
         <v>283</v>
       </c>
-      <c r="O11" s="223"/>
-      <c r="P11" s="223"/>
       <c r="Q11" s="223"/>
-    </row>
-    <row r="12" spans="1:17" s="224" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="223"/>
+      <c r="S11" s="223"/>
+    </row>
+    <row r="12" spans="1:19" s="224" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="220"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="221" t="s">
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="221" t="s">
         <v>301</v>
       </c>
-      <c r="F12" s="221" t="s">
+      <c r="H12" s="221" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="222" t="s">
+      <c r="I12" s="222" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="225" t="s">
+      <c r="J12" s="225" t="s">
         <v>302</v>
       </c>
-      <c r="I12" s="368" t="s">
+      <c r="K12" s="398" t="s">
         <v>311</v>
       </c>
-      <c r="J12" s="369"/>
-      <c r="K12" s="369"/>
-      <c r="L12" s="370"/>
-      <c r="M12" s="255" t="s">
+      <c r="L12" s="399"/>
+      <c r="M12" s="399"/>
+      <c r="N12" s="400"/>
+      <c r="O12" s="255" t="s">
         <v>303</v>
       </c>
-      <c r="N12" s="256" t="s">
+      <c r="P12" s="256" t="s">
         <v>312</v>
       </c>
-      <c r="O12" s="223"/>
-      <c r="P12" s="223"/>
       <c r="Q12" s="223"/>
-    </row>
-    <row r="13" spans="1:17" s="263" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+    </row>
+    <row r="13" spans="1:19" s="263" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="264"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="265" t="s">
+      <c r="B13" s="264"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="265" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="260" t="s">
+      <c r="H13" s="260" t="s">
         <v>221</v>
       </c>
-      <c r="G13" s="260" t="s">
+      <c r="I13" s="260" t="s">
         <v>222</v>
       </c>
-      <c r="H13" s="261" t="s">
+      <c r="J13" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="I13" s="371" t="s">
+      <c r="K13" s="401" t="s">
         <v>318</v>
       </c>
-      <c r="J13" s="372"/>
-      <c r="K13" s="372"/>
-      <c r="L13" s="373"/>
-      <c r="M13" s="266" t="s">
+      <c r="L13" s="402"/>
+      <c r="M13" s="402"/>
+      <c r="N13" s="403"/>
+      <c r="O13" s="266" t="s">
         <v>319</v>
       </c>
-      <c r="N13" s="267" t="s">
+      <c r="P13" s="267" t="s">
         <v>320</v>
       </c>
-      <c r="O13" s="262"/>
-      <c r="P13" s="262"/>
       <c r="Q13" s="262"/>
-    </row>
-    <row r="14" spans="1:17" s="263" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="262"/>
+      <c r="S13" s="262"/>
+    </row>
+    <row r="14" spans="1:19" s="263" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="268"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="259" t="s">
+      <c r="B14" s="268"/>
+      <c r="C14" s="268"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="259" t="s">
         <v>321</v>
       </c>
-      <c r="F14" s="260" t="s">
+      <c r="H14" s="260" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="260" t="s">
+      <c r="I14" s="260" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="261" t="s">
+      <c r="J14" s="261" t="s">
         <v>331</v>
       </c>
-      <c r="I14" s="371" t="s">
+      <c r="K14" s="401" t="s">
         <v>322</v>
       </c>
-      <c r="J14" s="372"/>
-      <c r="K14" s="372"/>
-      <c r="L14" s="373"/>
-      <c r="M14" s="269" t="s">
+      <c r="L14" s="402"/>
+      <c r="M14" s="402"/>
+      <c r="N14" s="403"/>
+      <c r="O14" s="269" t="s">
         <v>323</v>
       </c>
-      <c r="N14" s="270" t="s">
+      <c r="P14" s="270" t="s">
         <v>244</v>
       </c>
-      <c r="O14" s="262"/>
-      <c r="P14" s="262"/>
       <c r="Q14" s="262"/>
-    </row>
-    <row r="15" spans="1:17" s="263" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="262"/>
+      <c r="S14" s="262"/>
+    </row>
+    <row r="15" spans="1:19" s="263" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="268"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="259" t="s">
+      <c r="B15" s="268"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="259" t="s">
         <v>324</v>
       </c>
-      <c r="F15" s="260" t="s">
+      <c r="H15" s="260" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="260" t="s">
+      <c r="I15" s="260" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="261" t="s">
+      <c r="J15" s="261" t="s">
         <v>332</v>
       </c>
-      <c r="I15" s="371" t="s">
+      <c r="K15" s="401" t="s">
         <v>326</v>
       </c>
-      <c r="J15" s="372"/>
-      <c r="K15" s="372"/>
-      <c r="L15" s="373"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="262"/>
+      <c r="L15" s="402"/>
+      <c r="M15" s="402"/>
+      <c r="N15" s="403"/>
       <c r="O15" s="262"/>
       <c r="P15" s="262"/>
       <c r="Q15" s="262"/>
-    </row>
-    <row r="16" spans="1:17" s="287" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="262"/>
+      <c r="S15" s="262"/>
+    </row>
+    <row r="16" spans="1:19" s="287" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="288"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="289" t="s">
+      <c r="B16" s="288"/>
+      <c r="C16" s="288"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="289" t="s">
         <v>337</v>
       </c>
-      <c r="D16" s="290" t="s">
+      <c r="F16" s="290" t="s">
         <v>338</v>
       </c>
-      <c r="E16" s="291" t="s">
+      <c r="G16" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="292" t="s">
+      <c r="H16" s="292" t="s">
         <v>221</v>
       </c>
-      <c r="G16" s="292" t="s">
+      <c r="I16" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="293" t="s">
+      <c r="J16" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="I16" s="374" t="s">
+      <c r="K16" s="404" t="s">
         <v>339</v>
       </c>
-      <c r="J16" s="375"/>
-      <c r="K16" s="375"/>
-      <c r="L16" s="376"/>
-      <c r="M16" s="294" t="s">
+      <c r="L16" s="405"/>
+      <c r="M16" s="405"/>
+      <c r="N16" s="406"/>
+      <c r="O16" s="294" t="s">
         <v>340</v>
       </c>
-      <c r="N16" s="294" t="s">
+      <c r="P16" s="294" t="s">
         <v>341</v>
       </c>
-      <c r="O16" s="295"/>
-      <c r="P16" s="295"/>
-      <c r="Q16" s="291" t="s">
+      <c r="Q16" s="295"/>
+      <c r="R16" s="295"/>
+      <c r="S16" s="291" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="287" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="287" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="288"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="289" t="s">
+      <c r="B17" s="288"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="289" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="290" t="s">
+      <c r="F17" s="290" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="291" t="s">
+      <c r="G17" s="291" t="s">
         <v>343</v>
       </c>
-      <c r="F17" s="292" t="s">
+      <c r="H17" s="292" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="292" t="s">
+      <c r="I17" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="293" t="s">
+      <c r="J17" s="293" t="s">
         <v>349</v>
       </c>
-      <c r="I17" s="374" t="s">
+      <c r="K17" s="404" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="375"/>
-      <c r="K17" s="375"/>
-      <c r="L17" s="376"/>
-      <c r="M17" s="294" t="s">
+      <c r="L17" s="405"/>
+      <c r="M17" s="405"/>
+      <c r="N17" s="406"/>
+      <c r="O17" s="294" t="s">
         <v>346</v>
       </c>
-      <c r="N17" s="294" t="s">
+      <c r="P17" s="294" t="s">
         <v>347</v>
       </c>
-      <c r="O17" s="295"/>
-      <c r="P17" s="295"/>
-      <c r="Q17" s="291" t="s">
+      <c r="Q17" s="295"/>
+      <c r="R17" s="295"/>
+      <c r="S17" s="291" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="404" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="407"/>
-      <c r="B18" s="394" t="s">
+    <row r="18" spans="1:19" s="315" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="316"/>
+      <c r="B18" s="316" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="316">
+        <v>51</v>
+      </c>
+      <c r="D18" s="308" t="s">
         <v>364</v>
       </c>
-      <c r="C18" s="402"/>
-      <c r="D18" s="393"/>
-      <c r="E18" s="398" t="s">
+      <c r="E18" s="313"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="312" t="s">
         <v>365</v>
       </c>
-      <c r="F18" s="398" t="s">
+      <c r="H18" s="312" t="s">
         <v>221</v>
       </c>
-      <c r="G18" s="398" t="s">
+      <c r="I18" s="312" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="408" t="s">
+      <c r="J18" s="317" t="s">
         <v>363</v>
       </c>
-      <c r="I18" s="409" t="s">
+      <c r="K18" s="392" t="s">
         <v>366</v>
       </c>
-      <c r="J18" s="410"/>
-      <c r="K18" s="410"/>
-      <c r="L18" s="411"/>
-      <c r="M18" s="397" t="s">
+      <c r="L18" s="393"/>
+      <c r="M18" s="393"/>
+      <c r="N18" s="394"/>
+      <c r="O18" s="311" t="s">
         <v>367</v>
       </c>
-      <c r="N18" s="397" t="s">
+      <c r="P18" s="311" t="s">
         <v>368</v>
       </c>
-      <c r="O18" s="403" t="s">
+      <c r="Q18" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="P18" s="403" t="s">
+      <c r="R18" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="Q18" s="398" t="s">
+      <c r="S18" s="312" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="354"/>
-      <c r="J19" s="355"/>
-      <c r="K19" s="355"/>
-      <c r="L19" s="356"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="368"/>
+      <c r="L19" s="369"/>
+      <c r="M19" s="369"/>
+      <c r="N19" s="370"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="60"/>
-    </row>
-    <row r="20" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+    </row>
+    <row r="20" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="329"/>
-      <c r="F20" s="329"/>
-      <c r="G20" s="329"/>
-      <c r="H20" s="329"/>
-      <c r="I20" s="329"/>
-      <c r="J20" s="329"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="324"/>
+      <c r="H20" s="324"/>
+      <c r="I20" s="324"/>
+      <c r="J20" s="324"/>
+      <c r="K20" s="324"/>
+      <c r="L20" s="324"/>
       <c r="M20" s="60"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="60"/>
-    </row>
-    <row r="21" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+    </row>
+    <row r="21" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="329"/>
-      <c r="F21" s="329"/>
-      <c r="G21" s="329"/>
-      <c r="H21" s="329"/>
-      <c r="I21" s="329"/>
-      <c r="J21" s="329"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="324"/>
+      <c r="H21" s="324"/>
+      <c r="I21" s="324"/>
+      <c r="J21" s="324"/>
+      <c r="K21" s="324"/>
+      <c r="L21" s="324"/>
       <c r="M21" s="60"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
-    </row>
-    <row r="22" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+    </row>
+    <row r="22" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="329"/>
-      <c r="F22" s="329"/>
-      <c r="G22" s="329"/>
-      <c r="H22" s="329"/>
-      <c r="I22" s="329"/>
-      <c r="J22" s="329"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="324"/>
+      <c r="H22" s="324"/>
+      <c r="I22" s="324"/>
+      <c r="J22" s="324"/>
+      <c r="K22" s="324"/>
+      <c r="L22" s="324"/>
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
-    </row>
-    <row r="23" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+    </row>
+    <row r="23" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="329"/>
-      <c r="F23" s="329"/>
-      <c r="G23" s="329"/>
-      <c r="H23" s="329"/>
-      <c r="I23" s="329"/>
-      <c r="J23" s="329"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="324"/>
+      <c r="H23" s="324"/>
+      <c r="I23" s="324"/>
+      <c r="J23" s="324"/>
+      <c r="K23" s="324"/>
+      <c r="L23" s="324"/>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="60"/>
-    </row>
-    <row r="24" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+    </row>
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="329"/>
-      <c r="F24" s="329"/>
-      <c r="G24" s="329"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="329"/>
-      <c r="J24" s="329"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="324"/>
+      <c r="H24" s="324"/>
+      <c r="I24" s="324"/>
+      <c r="J24" s="324"/>
+      <c r="K24" s="324"/>
+      <c r="L24" s="324"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
-    </row>
-    <row r="25" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+    </row>
+    <row r="25" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="329"/>
-      <c r="F25" s="329"/>
-      <c r="G25" s="329"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="329"/>
-      <c r="J25" s="329"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="324"/>
+      <c r="H25" s="324"/>
+      <c r="I25" s="324"/>
+      <c r="J25" s="324"/>
+      <c r="K25" s="324"/>
+      <c r="L25" s="324"/>
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="60"/>
-    </row>
-    <row r="26" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+    </row>
+    <row r="26" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="329"/>
-      <c r="F26" s="329"/>
-      <c r="G26" s="329"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="329"/>
-      <c r="J26" s="329"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="324"/>
+      <c r="H26" s="324"/>
+      <c r="I26" s="324"/>
+      <c r="J26" s="324"/>
+      <c r="K26" s="324"/>
+      <c r="L26" s="324"/>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
-    </row>
-    <row r="27" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+    </row>
+    <row r="27" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="329"/>
-      <c r="F27" s="329"/>
-      <c r="G27" s="329"/>
-      <c r="H27" s="329"/>
-      <c r="I27" s="329"/>
-      <c r="J27" s="329"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="324"/>
+      <c r="H27" s="324"/>
+      <c r="I27" s="324"/>
+      <c r="J27" s="324"/>
+      <c r="K27" s="324"/>
+      <c r="L27" s="324"/>
       <c r="M27" s="60"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
-    </row>
-    <row r="28" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+    </row>
+    <row r="28" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="377"/>
-      <c r="I28" s="377"/>
-      <c r="J28" s="377"/>
-    </row>
-    <row r="29" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="382"/>
+      <c r="I28" s="382"/>
+      <c r="J28" s="382"/>
+      <c r="K28" s="382"/>
+      <c r="L28" s="382"/>
+    </row>
+    <row r="29" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="377"/>
-      <c r="F29" s="377"/>
-      <c r="G29" s="377"/>
-      <c r="H29" s="377"/>
-      <c r="I29" s="377"/>
-      <c r="J29" s="377"/>
-    </row>
-    <row r="30" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="382"/>
+      <c r="H29" s="382"/>
+      <c r="I29" s="382"/>
+      <c r="J29" s="382"/>
+      <c r="K29" s="382"/>
+      <c r="L29" s="382"/>
+    </row>
+    <row r="30" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="377"/>
-      <c r="F30" s="377"/>
-      <c r="G30" s="377"/>
-      <c r="H30" s="377"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
-    </row>
-    <row r="31" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="382"/>
+      <c r="H30" s="382"/>
+      <c r="I30" s="382"/>
+      <c r="J30" s="382"/>
+      <c r="K30" s="382"/>
+      <c r="L30" s="382"/>
+    </row>
+    <row r="31" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="377"/>
-      <c r="F31" s="377"/>
-      <c r="G31" s="377"/>
-      <c r="H31" s="377"/>
-      <c r="I31" s="377"/>
-      <c r="J31" s="377"/>
-    </row>
-    <row r="32" spans="1:17" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="382"/>
+      <c r="H31" s="382"/>
+      <c r="I31" s="382"/>
+      <c r="J31" s="382"/>
+      <c r="K31" s="382"/>
+      <c r="L31" s="382"/>
+    </row>
+    <row r="32" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="377"/>
-      <c r="F32" s="377"/>
-      <c r="G32" s="377"/>
-      <c r="H32" s="377"/>
-      <c r="I32" s="377"/>
-      <c r="J32" s="377"/>
-    </row>
-    <row r="33" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="382"/>
+      <c r="H32" s="382"/>
+      <c r="I32" s="382"/>
+      <c r="J32" s="382"/>
+      <c r="K32" s="382"/>
+      <c r="L32" s="382"/>
+    </row>
+    <row r="33" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="377"/>
-      <c r="F33" s="377"/>
-      <c r="G33" s="377"/>
-      <c r="H33" s="377"/>
-      <c r="I33" s="377"/>
-      <c r="J33" s="377"/>
-    </row>
-    <row r="34" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="382"/>
+      <c r="H33" s="382"/>
+      <c r="I33" s="382"/>
+      <c r="J33" s="382"/>
+      <c r="K33" s="382"/>
+      <c r="L33" s="382"/>
+    </row>
+    <row r="34" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="377"/>
-      <c r="F34" s="377"/>
-      <c r="G34" s="377"/>
-      <c r="H34" s="377"/>
-      <c r="I34" s="377"/>
-      <c r="J34" s="377"/>
-    </row>
-    <row r="35" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="382"/>
+      <c r="H34" s="382"/>
+      <c r="I34" s="382"/>
+      <c r="J34" s="382"/>
+      <c r="K34" s="382"/>
+      <c r="L34" s="382"/>
+    </row>
+    <row r="35" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="377"/>
-      <c r="F35" s="377"/>
-      <c r="G35" s="377"/>
-      <c r="H35" s="377"/>
-      <c r="I35" s="377"/>
-      <c r="J35" s="377"/>
-    </row>
-    <row r="36" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="382"/>
+      <c r="H35" s="382"/>
+      <c r="I35" s="382"/>
+      <c r="J35" s="382"/>
+      <c r="K35" s="382"/>
+      <c r="L35" s="382"/>
+    </row>
+    <row r="36" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="377"/>
-      <c r="F36" s="377"/>
-      <c r="G36" s="377"/>
-      <c r="H36" s="377"/>
-      <c r="I36" s="377"/>
-      <c r="J36" s="377"/>
-    </row>
-    <row r="37" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="382"/>
+      <c r="I36" s="382"/>
+      <c r="J36" s="382"/>
+      <c r="K36" s="382"/>
+      <c r="L36" s="382"/>
+    </row>
+    <row r="37" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="377"/>
-      <c r="F37" s="377"/>
-      <c r="G37" s="377"/>
-      <c r="H37" s="377"/>
-      <c r="I37" s="377"/>
-      <c r="J37" s="377"/>
-    </row>
-    <row r="38" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="382"/>
+      <c r="H37" s="382"/>
+      <c r="I37" s="382"/>
+      <c r="J37" s="382"/>
+      <c r="K37" s="382"/>
+      <c r="L37" s="382"/>
+    </row>
+    <row r="38" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="377"/>
-      <c r="F38" s="377"/>
-      <c r="G38" s="377"/>
-      <c r="H38" s="377"/>
-      <c r="I38" s="377"/>
-      <c r="J38" s="377"/>
-    </row>
-    <row r="39" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="382"/>
+      <c r="H38" s="382"/>
+      <c r="I38" s="382"/>
+      <c r="J38" s="382"/>
+      <c r="K38" s="382"/>
+      <c r="L38" s="382"/>
+    </row>
+    <row r="39" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="377"/>
-      <c r="F39" s="377"/>
-      <c r="G39" s="377"/>
-      <c r="H39" s="377"/>
-      <c r="I39" s="377"/>
-      <c r="J39" s="377"/>
-    </row>
-    <row r="40" spans="1:10" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="382"/>
+      <c r="H39" s="382"/>
+      <c r="I39" s="382"/>
+      <c r="J39" s="382"/>
+      <c r="K39" s="382"/>
+      <c r="L39" s="382"/>
+    </row>
+    <row r="40" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="377"/>
-      <c r="F40" s="377"/>
-      <c r="G40" s="377"/>
-      <c r="H40" s="377"/>
-      <c r="I40" s="377"/>
-      <c r="J40" s="377"/>
-    </row>
-    <row r="41" spans="1:10" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="382"/>
+      <c r="H40" s="382"/>
+      <c r="I40" s="382"/>
+      <c r="J40" s="382"/>
+      <c r="K40" s="382"/>
+      <c r="L40" s="382"/>
+    </row>
+    <row r="41" spans="1:12" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="377"/>
-      <c r="F41" s="377"/>
-      <c r="G41" s="377"/>
-      <c r="H41" s="377"/>
-      <c r="I41" s="377"/>
-      <c r="J41" s="377"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="382"/>
+      <c r="H41" s="382"/>
+      <c r="I41" s="382"/>
+      <c r="J41" s="382"/>
+      <c r="K41" s="382"/>
+      <c r="L41" s="382"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G31:L31"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5 P16:P17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5 R16:R17">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F13:F17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H9 H13:H17">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O16:O17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G17">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q5 Q16:Q17"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I17">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11483,7 +11681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:L51"/>
     </sheetView>
   </sheetViews>
@@ -11503,11 +11701,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11538,9 +11736,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -12312,20 +12510,20 @@
       <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="405" t="s">
+      <c r="A51" s="408" t="s">
         <v>371</v>
       </c>
-      <c r="B51" s="406"/>
-      <c r="C51" s="406"/>
-      <c r="D51" s="406"/>
-      <c r="E51" s="406"/>
-      <c r="F51" s="406"/>
-      <c r="G51" s="406"/>
-      <c r="H51" s="406"/>
-      <c r="I51" s="406"/>
-      <c r="J51" s="406"/>
-      <c r="K51" s="406"/>
-      <c r="L51" s="406"/>
+      <c r="B51" s="409"/>
+      <c r="C51" s="409"/>
+      <c r="D51" s="409"/>
+      <c r="E51" s="409"/>
+      <c r="F51" s="409"/>
+      <c r="G51" s="409"/>
+      <c r="H51" s="409"/>
+      <c r="I51" s="409"/>
+      <c r="J51" s="409"/>
+      <c r="K51" s="409"/>
+      <c r="L51" s="409"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A52" s="169" t="s">
@@ -12428,12 +12626,12 @@
       <c r="C58" s="39"/>
       <c r="D58" s="42"/>
       <c r="E58" s="38"/>
-      <c r="F58" s="377"/>
-      <c r="G58" s="377"/>
-      <c r="H58" s="377"/>
-      <c r="I58" s="377"/>
-      <c r="J58" s="377"/>
-      <c r="K58" s="377"/>
+      <c r="F58" s="382"/>
+      <c r="G58" s="382"/>
+      <c r="H58" s="382"/>
+      <c r="I58" s="382"/>
+      <c r="J58" s="382"/>
+      <c r="K58" s="382"/>
       <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:12" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12444,12 +12642,12 @@
       <c r="C59" s="228"/>
       <c r="D59" s="229"/>
       <c r="E59" s="230"/>
-      <c r="F59" s="387"/>
-      <c r="G59" s="387"/>
-      <c r="H59" s="387"/>
-      <c r="I59" s="387"/>
-      <c r="J59" s="387"/>
-      <c r="K59" s="387"/>
+      <c r="F59" s="407"/>
+      <c r="G59" s="407"/>
+      <c r="H59" s="407"/>
+      <c r="I59" s="407"/>
+      <c r="J59" s="407"/>
+      <c r="K59" s="407"/>
       <c r="L59" s="231"/>
     </row>
     <row r="60" spans="1:12" s="263" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12475,12 +12673,12 @@
       <c r="C61" s="232"/>
       <c r="D61" s="233"/>
       <c r="E61" s="234"/>
-      <c r="F61" s="387"/>
-      <c r="G61" s="387"/>
-      <c r="H61" s="387"/>
-      <c r="I61" s="387"/>
-      <c r="J61" s="387"/>
-      <c r="K61" s="387"/>
+      <c r="F61" s="407"/>
+      <c r="G61" s="407"/>
+      <c r="H61" s="407"/>
+      <c r="I61" s="407"/>
+      <c r="J61" s="407"/>
+      <c r="K61" s="407"/>
       <c r="L61" s="235"/>
     </row>
     <row r="62" spans="1:12" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12653,11 +12851,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -12680,9 +12878,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -13052,12 +13250,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="377"/>
-      <c r="I28" s="377"/>
-      <c r="J28" s="377"/>
-      <c r="K28" s="377"/>
+      <c r="F28" s="382"/>
+      <c r="G28" s="382"/>
+      <c r="H28" s="382"/>
+      <c r="I28" s="382"/>
+      <c r="J28" s="382"/>
+      <c r="K28" s="382"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -13066,12 +13264,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="377"/>
-      <c r="G29" s="377"/>
-      <c r="H29" s="377"/>
-      <c r="I29" s="377"/>
-      <c r="J29" s="377"/>
-      <c r="K29" s="377"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="382"/>
+      <c r="H29" s="382"/>
+      <c r="I29" s="382"/>
+      <c r="J29" s="382"/>
+      <c r="K29" s="382"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -13080,12 +13278,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="377"/>
-      <c r="G30" s="377"/>
-      <c r="H30" s="377"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
-      <c r="K30" s="377"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="382"/>
+      <c r="H30" s="382"/>
+      <c r="I30" s="382"/>
+      <c r="J30" s="382"/>
+      <c r="K30" s="382"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13094,12 +13292,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="377"/>
-      <c r="G31" s="377"/>
-      <c r="H31" s="377"/>
-      <c r="I31" s="377"/>
-      <c r="J31" s="377"/>
-      <c r="K31" s="377"/>
+      <c r="F31" s="382"/>
+      <c r="G31" s="382"/>
+      <c r="H31" s="382"/>
+      <c r="I31" s="382"/>
+      <c r="J31" s="382"/>
+      <c r="K31" s="382"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -13319,14 +13517,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="388" t="s">
+      <c r="E2" s="410" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="410"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -13747,11 +13945,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="389" t="s">
+      <c r="E28" s="411" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="390"/>
-      <c r="G28" s="391"/>
+      <c r="F28" s="412"/>
+      <c r="G28" s="413"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu xuat kho/WF0012 Cap nhat phieu xuat kho.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat phieu xuat kho/WF0012 Cap nhat phieu xuat kho.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" tabRatio="807" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Difination'!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$L$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item Screen'!$A$1:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$14</definedName>
@@ -1170,30 +1170,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ngày tạo tài liệu</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1975,7 +1951,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="372">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3571,18 +3547,6 @@
     <t>LinkEdit</t>
   </si>
   <si>
-    <t>Sửa</t>
-  </si>
-  <si>
-    <t>Require</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>WFML000186</t>
-  </si>
-  <si>
     <t>@SQL013</t>
   </si>
   <si>
@@ -3607,28 +3571,49 @@
 1</t>
   </si>
   <si>
-    <t>Chỉ dùng Customize Hoàng Trần  (CustomizeIndex = 51) Kiểm tra điều kiện trước khi load màn hình cập nhật WF0012</t>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Ver 7.0</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
   </si>
   <si>
     <t>-Cusomizec cho Hoàng Trần (CustomizeIndex = 51) Kiểm tra điều kiện Trước khi sửa
- + Sheet Input Check Thêm WFML000186 
  + Sheet Data Input thêm @SQL013
  + Sheet Data Input Thêm xử lý cho màn hình khi sửa</t>
   </si>
   <si>
-    <t>Ver 7.0    CustomizeIndex = 51
+    <t>Kiểm tra điều kiện trước khi load màn hình cập nhật WF0012 trong trường hợp sửa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ver 7.0    CustomizeIndex = 51 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Luồng nghiệp vụ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
  Click LinkEdit  thực thi câu @SQL013 kiểm tra điều kiện IsWeb 
-+ Nếu =1 Warn message WFML000186, Click Ok thực hiện @SQL004 load Form WF0012 chỉ Enabled các trường RefNo01, RefNo02, Description,  RDAddress, ContactPerson, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại thì disabled. click No thì thoát khỏi ra
++ Nếu =1 Warn message WFML000186, Click Yes thực hiện @SQL004 load Form WF0012 chỉ Enabled các trường RefNo01, RefNo02, Description,  RDAddress, ContactPerson, ActualQuantity, Ana01ID, Ana02ID, Ana03ID, Ana04ID, Ana05ID, Ana06ID, Ana07ID, Ana08ID, Ana09ID, Ana10ID, PeriodID, ProductID để sửa còn lại thì disabled. click No thì thoát khỏi ra
 + Nếu =0 thực thi @SQL004 load giá trị cho Form WF0012</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Ver 7.0</t>
-  </si>
-  <si>
-    <t>CustomizeIndex</t>
+    </r>
+  </si>
+  <si>
+    <t>Tham khảo luồng nghiệp vụ 1</t>
   </si>
 </sst>
 </file>
@@ -4129,7 +4114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4981,12 +4966,6 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5170,15 +5149,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5239,6 +5209,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5295,6 +5268,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5827,7 +5806,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5846,10 +5825,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
+      <c r="B1" s="319"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -5876,8 +5855,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -5928,14 +5907,14 @@
       <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="322" t="s">
+      <c r="E4" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -5952,14 +5931,14 @@
         <f>H1</f>
         <v>Thanh Sơn</v>
       </c>
-      <c r="E5" s="323" t="s">
+      <c r="E5" s="321" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -5974,14 +5953,14 @@
       <c r="D6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="325" t="s">
+      <c r="E6" s="323" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="326"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326"/>
-      <c r="J6" s="327"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="325"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112">
@@ -5996,14 +5975,14 @@
       <c r="D7" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="328" t="s">
+      <c r="E7" s="326" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="329"/>
-      <c r="G7" s="329"/>
-      <c r="H7" s="329"/>
-      <c r="I7" s="329"/>
-      <c r="J7" s="329"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="327"/>
+      <c r="I7" s="327"/>
+      <c r="J7" s="327"/>
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6018,14 +5997,14 @@
       <c r="D8" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="318" t="s">
+      <c r="E8" s="316" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="319"/>
-      <c r="J8" s="320"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="318"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -6040,14 +6019,14 @@
       <c r="D9" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="E9" s="331" t="s">
+      <c r="E9" s="329" t="s">
         <v>316</v>
       </c>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
-      <c r="H9" s="332"/>
-      <c r="I9" s="332"/>
-      <c r="J9" s="333"/>
+      <c r="F9" s="330"/>
+      <c r="G9" s="330"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="330"/>
+      <c r="J9" s="331"/>
     </row>
     <row r="10" spans="1:10" s="287" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -6062,14 +6041,14 @@
       <c r="D10" s="118" t="s">
         <v>315</v>
       </c>
-      <c r="E10" s="334" t="s">
+      <c r="E10" s="332" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="335"/>
-      <c r="G10" s="335"/>
-      <c r="H10" s="335"/>
-      <c r="I10" s="335"/>
-      <c r="J10" s="336"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="334"/>
     </row>
     <row r="11" spans="1:10" s="30" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -6084,14 +6063,14 @@
       <c r="D11" s="121" t="s">
         <v>357</v>
       </c>
-      <c r="E11" s="337" t="s">
-        <v>370</v>
-      </c>
-      <c r="F11" s="338"/>
-      <c r="G11" s="338"/>
-      <c r="H11" s="338"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="339"/>
+      <c r="E11" s="335" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="336"/>
+      <c r="G11" s="336"/>
+      <c r="H11" s="336"/>
+      <c r="I11" s="336"/>
+      <c r="J11" s="337"/>
     </row>
     <row r="12" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -6102,12 +6081,12 @@
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="124"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="341"/>
-      <c r="G12" s="341"/>
-      <c r="H12" s="341"/>
-      <c r="I12" s="341"/>
-      <c r="J12" s="342"/>
+      <c r="E12" s="338"/>
+      <c r="F12" s="339"/>
+      <c r="G12" s="339"/>
+      <c r="H12" s="339"/>
+      <c r="I12" s="339"/>
+      <c r="J12" s="340"/>
     </row>
     <row r="13" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -6118,12 +6097,12 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="343"/>
-      <c r="F13" s="344"/>
-      <c r="G13" s="344"/>
-      <c r="H13" s="344"/>
-      <c r="I13" s="344"/>
-      <c r="J13" s="345"/>
+      <c r="E13" s="341"/>
+      <c r="F13" s="342"/>
+      <c r="G13" s="342"/>
+      <c r="H13" s="342"/>
+      <c r="I13" s="342"/>
+      <c r="J13" s="343"/>
     </row>
     <row r="14" spans="1:10" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -6134,348 +6113,348 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="346"/>
-      <c r="F14" s="347"/>
-      <c r="G14" s="347"/>
-      <c r="H14" s="347"/>
-      <c r="I14" s="347"/>
-      <c r="J14" s="348"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="345"/>
+      <c r="G14" s="345"/>
+      <c r="H14" s="345"/>
+      <c r="I14" s="345"/>
+      <c r="J14" s="346"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="330"/>
-      <c r="F15" s="330"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="330"/>
-      <c r="I15" s="330"/>
-      <c r="J15" s="330"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="328"/>
+      <c r="J15" s="328"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="330"/>
-      <c r="F16" s="330"/>
-      <c r="G16" s="330"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="330"/>
-      <c r="J16" s="330"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="328"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="328"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="330"/>
-      <c r="G17" s="330"/>
-      <c r="H17" s="330"/>
-      <c r="I17" s="330"/>
-      <c r="J17" s="330"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="328"/>
+      <c r="H17" s="328"/>
+      <c r="I17" s="328"/>
+      <c r="J17" s="328"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="330"/>
-      <c r="F18" s="330"/>
-      <c r="G18" s="330"/>
-      <c r="H18" s="330"/>
-      <c r="I18" s="330"/>
-      <c r="J18" s="330"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="328"/>
+      <c r="H18" s="328"/>
+      <c r="I18" s="328"/>
+      <c r="J18" s="328"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="330"/>
-      <c r="I19" s="330"/>
-      <c r="J19" s="330"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="328"/>
+      <c r="I19" s="328"/>
+      <c r="J19" s="328"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="330"/>
-      <c r="F20" s="330"/>
-      <c r="G20" s="330"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="330"/>
-      <c r="J20" s="330"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="328"/>
+      <c r="G20" s="328"/>
+      <c r="H20" s="328"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="328"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="330"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="328"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="328"/>
+      <c r="J21" s="328"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="330"/>
-      <c r="F22" s="330"/>
-      <c r="G22" s="330"/>
-      <c r="H22" s="330"/>
-      <c r="I22" s="330"/>
-      <c r="J22" s="330"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="328"/>
+      <c r="G22" s="328"/>
+      <c r="H22" s="328"/>
+      <c r="I22" s="328"/>
+      <c r="J22" s="328"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="330"/>
-      <c r="F23" s="330"/>
-      <c r="G23" s="330"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
-      <c r="J23" s="330"/>
+      <c r="E23" s="328"/>
+      <c r="F23" s="328"/>
+      <c r="G23" s="328"/>
+      <c r="H23" s="328"/>
+      <c r="I23" s="328"/>
+      <c r="J23" s="328"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="330"/>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="330"/>
-      <c r="F25" s="330"/>
-      <c r="G25" s="330"/>
-      <c r="H25" s="330"/>
-      <c r="I25" s="330"/>
-      <c r="J25" s="330"/>
+      <c r="E25" s="328"/>
+      <c r="F25" s="328"/>
+      <c r="G25" s="328"/>
+      <c r="H25" s="328"/>
+      <c r="I25" s="328"/>
+      <c r="J25" s="328"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
-      <c r="J26" s="330"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="328"/>
+      <c r="H26" s="328"/>
+      <c r="I26" s="328"/>
+      <c r="J26" s="328"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="330"/>
-      <c r="F27" s="330"/>
-      <c r="G27" s="330"/>
-      <c r="H27" s="330"/>
-      <c r="I27" s="330"/>
-      <c r="J27" s="330"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328"/>
+      <c r="J27" s="328"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="330"/>
-      <c r="J28" s="330"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="328"/>
+      <c r="G28" s="328"/>
+      <c r="H28" s="328"/>
+      <c r="I28" s="328"/>
+      <c r="J28" s="328"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="330"/>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="330"/>
-      <c r="I29" s="330"/>
-      <c r="J29" s="330"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328"/>
+      <c r="J29" s="328"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="330"/>
-      <c r="J30" s="330"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="328"/>
+      <c r="H30" s="328"/>
+      <c r="I30" s="328"/>
+      <c r="J30" s="328"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="330"/>
-      <c r="F31" s="330"/>
-      <c r="G31" s="330"/>
-      <c r="H31" s="330"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="328"/>
+      <c r="I31" s="328"/>
+      <c r="J31" s="328"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="330"/>
-      <c r="F32" s="330"/>
-      <c r="G32" s="330"/>
-      <c r="H32" s="330"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="328"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="328"/>
+      <c r="J32" s="328"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
-      <c r="G33" s="330"/>
-      <c r="H33" s="330"/>
-      <c r="I33" s="330"/>
-      <c r="J33" s="330"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="328"/>
+      <c r="H33" s="328"/>
+      <c r="I33" s="328"/>
+      <c r="J33" s="328"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
-      <c r="J34" s="330"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
-      <c r="J35" s="330"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="330"/>
-      <c r="F36" s="330"/>
-      <c r="G36" s="330"/>
-      <c r="H36" s="330"/>
-      <c r="I36" s="330"/>
-      <c r="J36" s="330"/>
+      <c r="E36" s="328"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="328"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="330"/>
-      <c r="F37" s="330"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="330"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="328"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="330"/>
-      <c r="J38" s="330"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="328"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="330"/>
-      <c r="F39" s="330"/>
-      <c r="G39" s="330"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
-      <c r="J39" s="330"/>
+      <c r="E39" s="328"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="328"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="330"/>
-      <c r="F40" s="330"/>
-      <c r="G40" s="330"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
-      <c r="J40" s="330"/>
+      <c r="E40" s="328"/>
+      <c r="F40" s="328"/>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="330"/>
-      <c r="F41" s="330"/>
-      <c r="G41" s="330"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
-      <c r="J41" s="330"/>
+      <c r="E41" s="328"/>
+      <c r="F41" s="328"/>
+      <c r="G41" s="328"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="328"/>
+      <c r="J41" s="328"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="330"/>
-      <c r="F42" s="330"/>
-      <c r="G42" s="330"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
-      <c r="J42" s="330"/>
+      <c r="E42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -6535,7 +6514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -6727,10 +6706,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
+      <c r="B1" s="319"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -6761,8 +6740,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -6805,72 +6784,72 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="321" t="s">
+      <c r="A4" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321"/>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321" t="s">
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="321"/>
+      <c r="J4" s="319"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
-      <c r="B5" s="356"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="357"/>
-      <c r="I5" s="349" t="s">
+      <c r="A5" s="353"/>
+      <c r="B5" s="354"/>
+      <c r="C5" s="354"/>
+      <c r="D5" s="354"/>
+      <c r="E5" s="354"/>
+      <c r="F5" s="354"/>
+      <c r="G5" s="354"/>
+      <c r="H5" s="355"/>
+      <c r="I5" s="347" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="350"/>
+      <c r="J5" s="348"/>
     </row>
     <row r="6" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="358"/>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="351" t="s">
+      <c r="A6" s="356"/>
+      <c r="B6" s="357"/>
+      <c r="C6" s="357"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="357"/>
+      <c r="F6" s="357"/>
+      <c r="G6" s="357"/>
+      <c r="H6" s="358"/>
+      <c r="I6" s="349" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="352"/>
+      <c r="J6" s="350"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="358"/>
-      <c r="B7" s="359"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="360"/>
-      <c r="I7" s="353" t="s">
+      <c r="A7" s="356"/>
+      <c r="B7" s="357"/>
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="357"/>
+      <c r="G7" s="357"/>
+      <c r="H7" s="358"/>
+      <c r="I7" s="351" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="354"/>
+      <c r="J7" s="352"/>
     </row>
     <row r="8" spans="1:10" ht="336" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="358"/>
-      <c r="B8" s="359"/>
-      <c r="C8" s="359"/>
-      <c r="D8" s="359"/>
-      <c r="E8" s="359"/>
-      <c r="F8" s="359"/>
-      <c r="G8" s="359"/>
-      <c r="H8" s="360"/>
+      <c r="A8" s="356"/>
+      <c r="B8" s="357"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
+      <c r="F8" s="357"/>
+      <c r="G8" s="357"/>
+      <c r="H8" s="358"/>
       <c r="I8" s="189" t="s">
         <v>241</v>
       </c>
@@ -6953,336 +6932,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="330"/>
-      <c r="F15" s="330"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="330"/>
-      <c r="I15" s="330"/>
-      <c r="J15" s="330"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="328"/>
+      <c r="J15" s="328"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="330"/>
-      <c r="F16" s="330"/>
-      <c r="G16" s="330"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="330"/>
-      <c r="J16" s="330"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="328"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="328"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="330"/>
-      <c r="G17" s="330"/>
-      <c r="H17" s="330"/>
-      <c r="I17" s="330"/>
-      <c r="J17" s="330"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="328"/>
+      <c r="H17" s="328"/>
+      <c r="I17" s="328"/>
+      <c r="J17" s="328"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="330"/>
-      <c r="F18" s="330"/>
-      <c r="G18" s="330"/>
-      <c r="H18" s="330"/>
-      <c r="I18" s="330"/>
-      <c r="J18" s="330"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="328"/>
+      <c r="H18" s="328"/>
+      <c r="I18" s="328"/>
+      <c r="J18" s="328"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="330"/>
-      <c r="I19" s="330"/>
-      <c r="J19" s="330"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="328"/>
+      <c r="I19" s="328"/>
+      <c r="J19" s="328"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="330"/>
-      <c r="F20" s="330"/>
-      <c r="G20" s="330"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="330"/>
-      <c r="J20" s="330"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="328"/>
+      <c r="G20" s="328"/>
+      <c r="H20" s="328"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="328"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="330"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="328"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="328"/>
+      <c r="J21" s="328"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="330"/>
-      <c r="F22" s="330"/>
-      <c r="G22" s="330"/>
-      <c r="H22" s="330"/>
-      <c r="I22" s="330"/>
-      <c r="J22" s="330"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="328"/>
+      <c r="G22" s="328"/>
+      <c r="H22" s="328"/>
+      <c r="I22" s="328"/>
+      <c r="J22" s="328"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="330"/>
-      <c r="F23" s="330"/>
-      <c r="G23" s="330"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
-      <c r="J23" s="330"/>
+      <c r="E23" s="328"/>
+      <c r="F23" s="328"/>
+      <c r="G23" s="328"/>
+      <c r="H23" s="328"/>
+      <c r="I23" s="328"/>
+      <c r="J23" s="328"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="330"/>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="330"/>
-      <c r="F25" s="330"/>
-      <c r="G25" s="330"/>
-      <c r="H25" s="330"/>
-      <c r="I25" s="330"/>
-      <c r="J25" s="330"/>
+      <c r="E25" s="328"/>
+      <c r="F25" s="328"/>
+      <c r="G25" s="328"/>
+      <c r="H25" s="328"/>
+      <c r="I25" s="328"/>
+      <c r="J25" s="328"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
-      <c r="J26" s="330"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="328"/>
+      <c r="H26" s="328"/>
+      <c r="I26" s="328"/>
+      <c r="J26" s="328"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="330"/>
-      <c r="F27" s="330"/>
-      <c r="G27" s="330"/>
-      <c r="H27" s="330"/>
-      <c r="I27" s="330"/>
-      <c r="J27" s="330"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328"/>
+      <c r="J27" s="328"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="330"/>
-      <c r="J28" s="330"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="328"/>
+      <c r="G28" s="328"/>
+      <c r="H28" s="328"/>
+      <c r="I28" s="328"/>
+      <c r="J28" s="328"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="330"/>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="330"/>
-      <c r="I29" s="330"/>
-      <c r="J29" s="330"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328"/>
+      <c r="J29" s="328"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="330"/>
-      <c r="J30" s="330"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="328"/>
+      <c r="H30" s="328"/>
+      <c r="I30" s="328"/>
+      <c r="J30" s="328"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="330"/>
-      <c r="F31" s="330"/>
-      <c r="G31" s="330"/>
-      <c r="H31" s="330"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="328"/>
+      <c r="I31" s="328"/>
+      <c r="J31" s="328"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="330"/>
-      <c r="F32" s="330"/>
-      <c r="G32" s="330"/>
-      <c r="H32" s="330"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="328"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="328"/>
+      <c r="J32" s="328"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
-      <c r="G33" s="330"/>
-      <c r="H33" s="330"/>
-      <c r="I33" s="330"/>
-      <c r="J33" s="330"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="328"/>
+      <c r="H33" s="328"/>
+      <c r="I33" s="328"/>
+      <c r="J33" s="328"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
-      <c r="J34" s="330"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
-      <c r="J35" s="330"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="330"/>
-      <c r="F36" s="330"/>
-      <c r="G36" s="330"/>
-      <c r="H36" s="330"/>
-      <c r="I36" s="330"/>
-      <c r="J36" s="330"/>
+      <c r="E36" s="328"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="328"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="330"/>
-      <c r="F37" s="330"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="330"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="328"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="330"/>
-      <c r="J38" s="330"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="328"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="330"/>
-      <c r="F39" s="330"/>
-      <c r="G39" s="330"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
-      <c r="J39" s="330"/>
+      <c r="E39" s="328"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="328"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="330"/>
-      <c r="F40" s="330"/>
-      <c r="G40" s="330"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
-      <c r="J40" s="330"/>
+      <c r="E40" s="328"/>
+      <c r="F40" s="328"/>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="330"/>
-      <c r="F41" s="330"/>
-      <c r="G41" s="330"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
-      <c r="J41" s="330"/>
+      <c r="E41" s="328"/>
+      <c r="F41" s="328"/>
+      <c r="G41" s="328"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="328"/>
+      <c r="J41" s="328"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="330"/>
-      <c r="F42" s="330"/>
-      <c r="G42" s="330"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
-      <c r="J42" s="330"/>
+      <c r="E42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -7362,10 +7341,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="361"/>
+      <c r="B1" s="359"/>
       <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
@@ -7390,18 +7369,18 @@
       <c r="I1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="362" t="str">
+      <c r="J1" s="360" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="K1" s="363"/>
+      <c r="K1" s="361"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="361"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="359"/>
       <c r="C2" s="128" t="s">
         <v>7</v>
       </c>
@@ -7426,11 +7405,11 @@
       <c r="I2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="364">
+      <c r="J2" s="362">
         <f>'Update History'!J2</f>
         <v>42381</v>
       </c>
-      <c r="K2" s="365"/>
+      <c r="K2" s="363"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -8132,7 +8111,7 @@
       <c r="N27" s="155"/>
     </row>
     <row r="28" spans="1:14" s="217" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="366" t="s">
+      <c r="A28" s="364" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="218">
@@ -8166,7 +8145,7 @@
       <c r="N28" s="216"/>
     </row>
     <row r="29" spans="1:14" s="217" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="367"/>
+      <c r="A29" s="365"/>
       <c r="B29" s="218">
         <v>42</v>
       </c>
@@ -9175,10 +9154,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9196,12 +9175,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9232,10 +9211,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -9284,10 +9263,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="305" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C4" s="305" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>22</v>
@@ -9307,67 +9286,53 @@
       <c r="I4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="371" t="s">
+      <c r="J4" s="369" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="371"/>
-      <c r="L4" s="371"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307"/>
-      <c r="B5" s="307" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" s="307">
-        <v>51</v>
-      </c>
-      <c r="D5" s="308" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="309" t="s">
-        <v>360</v>
-      </c>
-      <c r="F5" s="310"/>
-      <c r="G5" s="311"/>
-      <c r="H5" s="312" t="s">
-        <v>358</v>
-      </c>
-      <c r="I5" s="312" t="s">
-        <v>361</v>
-      </c>
-      <c r="J5" s="372" t="s">
-        <v>362</v>
-      </c>
-      <c r="K5" s="373"/>
-      <c r="L5" s="374"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="366"/>
+      <c r="K5" s="367"/>
+      <c r="L5" s="368"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="368"/>
-      <c r="K6" s="369"/>
-      <c r="L6" s="370"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="366"/>
+      <c r="K6" s="367"/>
+      <c r="L6" s="368"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="19"/>
       <c r="E7" s="57"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="368"/>
-      <c r="K7" s="369"/>
-      <c r="L7" s="370"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="366"/>
+      <c r="K7" s="367"/>
+      <c r="L7" s="368"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -9376,26 +9341,26 @@
       <c r="D8" s="19"/>
       <c r="E8" s="57"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="368"/>
-      <c r="K8" s="369"/>
-      <c r="L8" s="370"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="366"/>
+      <c r="K8" s="367"/>
+      <c r="L8" s="368"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="19"/>
       <c r="E9" s="57"/>
       <c r="F9" s="18"/>
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="368"/>
-      <c r="K9" s="369"/>
-      <c r="L9" s="370"/>
+      <c r="J9" s="366"/>
+      <c r="K9" s="367"/>
+      <c r="L9" s="368"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
@@ -9407,9 +9372,9 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="369"/>
-      <c r="L10" s="370"/>
+      <c r="J10" s="366"/>
+      <c r="K10" s="367"/>
+      <c r="L10" s="368"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
@@ -9421,23 +9386,23 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="368"/>
-      <c r="K11" s="369"/>
-      <c r="L11" s="370"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="366"/>
+      <c r="K11" s="367"/>
+      <c r="L11" s="368"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="368"/>
-      <c r="K12" s="369"/>
-      <c r="L12" s="370"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="366"/>
+      <c r="K12" s="367"/>
+      <c r="L12" s="368"/>
     </row>
     <row r="13" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -9449,65 +9414,65 @@
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="368"/>
-      <c r="K13" s="369"/>
-      <c r="L13" s="370"/>
-    </row>
-    <row r="14" spans="1:12" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="368"/>
-      <c r="K14" s="369"/>
-      <c r="L14" s="370"/>
+      <c r="J13" s="366"/>
+      <c r="K13" s="367"/>
+      <c r="L13" s="368"/>
+    </row>
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="328"/>
+      <c r="H14" s="328"/>
+      <c r="I14" s="328"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="328"/>
+      <c r="L14" s="328"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="330"/>
-      <c r="I15" s="330"/>
-      <c r="J15" s="330"/>
-      <c r="K15" s="330"/>
-      <c r="L15" s="330"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="328"/>
+      <c r="J15" s="328"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="328"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="330"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="330"/>
-      <c r="J16" s="330"/>
-      <c r="K16" s="330"/>
-      <c r="L16" s="330"/>
+      <c r="G16" s="328"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="328"/>
+      <c r="L16" s="328"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="330"/>
-      <c r="H17" s="330"/>
-      <c r="I17" s="330"/>
-      <c r="J17" s="330"/>
-      <c r="K17" s="330"/>
-      <c r="L17" s="330"/>
+      <c r="G17" s="328"/>
+      <c r="H17" s="328"/>
+      <c r="I17" s="328"/>
+      <c r="J17" s="328"/>
+      <c r="K17" s="328"/>
+      <c r="L17" s="328"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -9516,26 +9481,26 @@
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="330"/>
-      <c r="H18" s="330"/>
-      <c r="I18" s="330"/>
-      <c r="J18" s="330"/>
-      <c r="K18" s="330"/>
-      <c r="L18" s="330"/>
+      <c r="G18" s="328"/>
+      <c r="H18" s="328"/>
+      <c r="I18" s="328"/>
+      <c r="J18" s="328"/>
+      <c r="K18" s="328"/>
+      <c r="L18" s="328"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="330"/>
-      <c r="I19" s="330"/>
-      <c r="J19" s="330"/>
-      <c r="K19" s="330"/>
-      <c r="L19" s="330"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="328"/>
+      <c r="I19" s="328"/>
+      <c r="J19" s="328"/>
+      <c r="K19" s="328"/>
+      <c r="L19" s="328"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -9544,12 +9509,12 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="330"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="330"/>
-      <c r="J20" s="330"/>
-      <c r="K20" s="330"/>
-      <c r="L20" s="330"/>
+      <c r="G20" s="328"/>
+      <c r="H20" s="328"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="328"/>
+      <c r="K20" s="328"/>
+      <c r="L20" s="328"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -9558,12 +9523,12 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
-      <c r="K21" s="330"/>
-      <c r="L21" s="330"/>
+      <c r="G21" s="328"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="328"/>
+      <c r="J21" s="328"/>
+      <c r="K21" s="328"/>
+      <c r="L21" s="328"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -9572,12 +9537,12 @@
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="330"/>
-      <c r="H22" s="330"/>
-      <c r="I22" s="330"/>
-      <c r="J22" s="330"/>
-      <c r="K22" s="330"/>
-      <c r="L22" s="330"/>
+      <c r="G22" s="328"/>
+      <c r="H22" s="328"/>
+      <c r="I22" s="328"/>
+      <c r="J22" s="328"/>
+      <c r="K22" s="328"/>
+      <c r="L22" s="328"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -9586,68 +9551,68 @@
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="330"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
-      <c r="J23" s="330"/>
-      <c r="K23" s="330"/>
-      <c r="L23" s="330"/>
+      <c r="G23" s="328"/>
+      <c r="H23" s="328"/>
+      <c r="I23" s="328"/>
+      <c r="J23" s="328"/>
+      <c r="K23" s="328"/>
+      <c r="L23" s="328"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330"/>
-      <c r="K24" s="330"/>
-      <c r="L24" s="330"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
+      <c r="K24" s="328"/>
+      <c r="L24" s="328"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="330"/>
-      <c r="H25" s="330"/>
-      <c r="I25" s="330"/>
-      <c r="J25" s="330"/>
-      <c r="K25" s="330"/>
-      <c r="L25" s="330"/>
+      <c r="G25" s="328"/>
+      <c r="H25" s="328"/>
+      <c r="I25" s="328"/>
+      <c r="J25" s="328"/>
+      <c r="K25" s="328"/>
+      <c r="L25" s="328"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
-      <c r="J26" s="330"/>
-      <c r="K26" s="330"/>
-      <c r="L26" s="330"/>
+      <c r="G26" s="328"/>
+      <c r="H26" s="328"/>
+      <c r="I26" s="328"/>
+      <c r="J26" s="328"/>
+      <c r="K26" s="328"/>
+      <c r="L26" s="328"/>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="330"/>
-      <c r="H27" s="330"/>
-      <c r="I27" s="330"/>
-      <c r="J27" s="330"/>
-      <c r="K27" s="330"/>
-      <c r="L27" s="330"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328"/>
+      <c r="J27" s="328"/>
+      <c r="K27" s="328"/>
+      <c r="L27" s="328"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -9656,26 +9621,26 @@
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="330"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="330"/>
-      <c r="J28" s="330"/>
-      <c r="K28" s="330"/>
-      <c r="L28" s="330"/>
+      <c r="G28" s="328"/>
+      <c r="H28" s="328"/>
+      <c r="I28" s="328"/>
+      <c r="J28" s="328"/>
+      <c r="K28" s="328"/>
+      <c r="L28" s="328"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="330"/>
-      <c r="I29" s="330"/>
-      <c r="J29" s="330"/>
-      <c r="K29" s="330"/>
-      <c r="L29" s="330"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328"/>
+      <c r="J29" s="328"/>
+      <c r="K29" s="328"/>
+      <c r="L29" s="328"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -9684,12 +9649,12 @@
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="330"/>
-      <c r="J30" s="330"/>
-      <c r="K30" s="330"/>
-      <c r="L30" s="330"/>
+      <c r="G30" s="328"/>
+      <c r="H30" s="328"/>
+      <c r="I30" s="328"/>
+      <c r="J30" s="328"/>
+      <c r="K30" s="328"/>
+      <c r="L30" s="328"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -9698,12 +9663,12 @@
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="330"/>
-      <c r="H31" s="330"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
-      <c r="K31" s="330"/>
-      <c r="L31" s="330"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="328"/>
+      <c r="I31" s="328"/>
+      <c r="J31" s="328"/>
+      <c r="K31" s="328"/>
+      <c r="L31" s="328"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -9712,12 +9677,12 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="330"/>
-      <c r="H32" s="330"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
-      <c r="K32" s="330"/>
-      <c r="L32" s="330"/>
+      <c r="G32" s="328"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="328"/>
+      <c r="J32" s="328"/>
+      <c r="K32" s="328"/>
+      <c r="L32" s="328"/>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -9726,68 +9691,68 @@
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="330"/>
-      <c r="H33" s="330"/>
-      <c r="I33" s="330"/>
-      <c r="J33" s="330"/>
-      <c r="K33" s="330"/>
-      <c r="L33" s="330"/>
+      <c r="G33" s="328"/>
+      <c r="H33" s="328"/>
+      <c r="I33" s="328"/>
+      <c r="J33" s="328"/>
+      <c r="K33" s="328"/>
+      <c r="L33" s="328"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
-      <c r="J34" s="330"/>
-      <c r="K34" s="330"/>
-      <c r="L34" s="330"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
+      <c r="K34" s="328"/>
+      <c r="L34" s="328"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
       <c r="F35" s="34"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
-      <c r="J35" s="330"/>
-      <c r="K35" s="330"/>
-      <c r="L35" s="330"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="328"/>
+      <c r="K35" s="328"/>
+      <c r="L35" s="328"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="330"/>
-      <c r="H36" s="330"/>
-      <c r="I36" s="330"/>
-      <c r="J36" s="330"/>
-      <c r="K36" s="330"/>
-      <c r="L36" s="330"/>
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="328"/>
+      <c r="K36" s="328"/>
+      <c r="L36" s="328"/>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="330"/>
-      <c r="K37" s="330"/>
-      <c r="L37" s="330"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="328"/>
+      <c r="K37" s="328"/>
+      <c r="L37" s="328"/>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -9796,26 +9761,26 @@
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
       <c r="F38" s="34"/>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="330"/>
-      <c r="J38" s="330"/>
-      <c r="K38" s="330"/>
-      <c r="L38" s="330"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="328"/>
+      <c r="K38" s="328"/>
+      <c r="L38" s="328"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
       <c r="F39" s="34"/>
-      <c r="G39" s="330"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
-      <c r="J39" s="330"/>
-      <c r="K39" s="330"/>
-      <c r="L39" s="330"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="328"/>
+      <c r="K39" s="328"/>
+      <c r="L39" s="328"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
@@ -9824,75 +9789,61 @@
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
       <c r="F40" s="34"/>
-      <c r="G40" s="330"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
-      <c r="J40" s="330"/>
-      <c r="K40" s="330"/>
-      <c r="L40" s="330"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
+      <c r="K40" s="328"/>
+      <c r="L40" s="328"/>
+    </row>
+    <row r="41" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
       <c r="F41" s="34"/>
-      <c r="G41" s="330"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
-      <c r="J41" s="330"/>
-      <c r="K41" s="330"/>
-      <c r="L41" s="330"/>
-    </row>
-    <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="330"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
-      <c r="J42" s="330"/>
-      <c r="K42" s="330"/>
-      <c r="L42" s="330"/>
+      <c r="G41" s="328"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="328"/>
+      <c r="J41" s="328"/>
+      <c r="K41" s="328"/>
+      <c r="L41" s="328"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="G34:L34"/>
     <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G26:L26"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
     <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G22:L22"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G32:L32"/>
     <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G38:L38"/>
     <mergeCell ref="G39:L39"/>
     <mergeCell ref="G40:L40"/>
     <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G36:L36"/>
     <mergeCell ref="G37:L37"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G14:L14"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="G17:L17"/>
@@ -9900,7 +9851,6 @@
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="G20:L20"/>
     <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2">
@@ -9936,10 +9886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
+      <c r="B1" s="319"/>
       <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
@@ -9970,8 +9920,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
       <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10002,16 +9952,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="379"/>
-      <c r="B3" s="380"/>
-      <c r="C3" s="380"/>
-      <c r="D3" s="380"/>
-      <c r="E3" s="380"/>
-      <c r="F3" s="380"/>
-      <c r="G3" s="380"/>
-      <c r="H3" s="380"/>
-      <c r="I3" s="380"/>
-      <c r="J3" s="381"/>
+      <c r="A3" s="374"/>
+      <c r="B3" s="375"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="375"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="376"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
@@ -10026,16 +9976,16 @@
       <c r="D4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="375" t="s">
+      <c r="E4" s="370" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="375"/>
-      <c r="G4" s="376" t="s">
+      <c r="F4" s="370"/>
+      <c r="G4" s="371" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="378"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="372"/>
+      <c r="J4" s="373"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -10162,336 +10112,336 @@
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="330"/>
-      <c r="F15" s="330"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="330"/>
-      <c r="I15" s="330"/>
-      <c r="J15" s="330"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="328"/>
+      <c r="J15" s="328"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="330"/>
-      <c r="F16" s="330"/>
-      <c r="G16" s="330"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="330"/>
-      <c r="J16" s="330"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="328"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="328"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="330"/>
-      <c r="G17" s="330"/>
-      <c r="H17" s="330"/>
-      <c r="I17" s="330"/>
-      <c r="J17" s="330"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="328"/>
+      <c r="H17" s="328"/>
+      <c r="I17" s="328"/>
+      <c r="J17" s="328"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="330"/>
-      <c r="F18" s="330"/>
-      <c r="G18" s="330"/>
-      <c r="H18" s="330"/>
-      <c r="I18" s="330"/>
-      <c r="J18" s="330"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="328"/>
+      <c r="H18" s="328"/>
+      <c r="I18" s="328"/>
+      <c r="J18" s="328"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="330"/>
-      <c r="I19" s="330"/>
-      <c r="J19" s="330"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="328"/>
+      <c r="I19" s="328"/>
+      <c r="J19" s="328"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="330"/>
-      <c r="F20" s="330"/>
-      <c r="G20" s="330"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="330"/>
-      <c r="J20" s="330"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="328"/>
+      <c r="G20" s="328"/>
+      <c r="H20" s="328"/>
+      <c r="I20" s="328"/>
+      <c r="J20" s="328"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="330"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
-      <c r="J21" s="330"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="328"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="328"/>
+      <c r="J21" s="328"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="330"/>
-      <c r="F22" s="330"/>
-      <c r="G22" s="330"/>
-      <c r="H22" s="330"/>
-      <c r="I22" s="330"/>
-      <c r="J22" s="330"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="328"/>
+      <c r="G22" s="328"/>
+      <c r="H22" s="328"/>
+      <c r="I22" s="328"/>
+      <c r="J22" s="328"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="330"/>
-      <c r="F23" s="330"/>
-      <c r="G23" s="330"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
-      <c r="J23" s="330"/>
+      <c r="E23" s="328"/>
+      <c r="F23" s="328"/>
+      <c r="G23" s="328"/>
+      <c r="H23" s="328"/>
+      <c r="I23" s="328"/>
+      <c r="J23" s="328"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="330"/>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
-      <c r="J24" s="330"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="328"/>
+      <c r="H24" s="328"/>
+      <c r="I24" s="328"/>
+      <c r="J24" s="328"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="330"/>
-      <c r="F25" s="330"/>
-      <c r="G25" s="330"/>
-      <c r="H25" s="330"/>
-      <c r="I25" s="330"/>
-      <c r="J25" s="330"/>
+      <c r="E25" s="328"/>
+      <c r="F25" s="328"/>
+      <c r="G25" s="328"/>
+      <c r="H25" s="328"/>
+      <c r="I25" s="328"/>
+      <c r="J25" s="328"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
-      <c r="J26" s="330"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="328"/>
+      <c r="H26" s="328"/>
+      <c r="I26" s="328"/>
+      <c r="J26" s="328"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="330"/>
-      <c r="F27" s="330"/>
-      <c r="G27" s="330"/>
-      <c r="H27" s="330"/>
-      <c r="I27" s="330"/>
-      <c r="J27" s="330"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328"/>
+      <c r="J27" s="328"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="330"/>
-      <c r="J28" s="330"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="328"/>
+      <c r="G28" s="328"/>
+      <c r="H28" s="328"/>
+      <c r="I28" s="328"/>
+      <c r="J28" s="328"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="330"/>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="330"/>
-      <c r="I29" s="330"/>
-      <c r="J29" s="330"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="328"/>
+      <c r="I29" s="328"/>
+      <c r="J29" s="328"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="330"/>
-      <c r="J30" s="330"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="328"/>
+      <c r="H30" s="328"/>
+      <c r="I30" s="328"/>
+      <c r="J30" s="328"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="330"/>
-      <c r="F31" s="330"/>
-      <c r="G31" s="330"/>
-      <c r="H31" s="330"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="328"/>
+      <c r="I31" s="328"/>
+      <c r="J31" s="328"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="330"/>
-      <c r="F32" s="330"/>
-      <c r="G32" s="330"/>
-      <c r="H32" s="330"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="328"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="328"/>
+      <c r="J32" s="328"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
-      <c r="G33" s="330"/>
-      <c r="H33" s="330"/>
-      <c r="I33" s="330"/>
-      <c r="J33" s="330"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="328"/>
+      <c r="H33" s="328"/>
+      <c r="I33" s="328"/>
+      <c r="J33" s="328"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
-      <c r="J34" s="330"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
-      <c r="J35" s="330"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="330"/>
-      <c r="F36" s="330"/>
-      <c r="G36" s="330"/>
-      <c r="H36" s="330"/>
-      <c r="I36" s="330"/>
-      <c r="J36" s="330"/>
+      <c r="E36" s="328"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="328"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="330"/>
-      <c r="F37" s="330"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="330"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="328"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="330"/>
-      <c r="J38" s="330"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="328"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="330"/>
-      <c r="F39" s="330"/>
-      <c r="G39" s="330"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
-      <c r="J39" s="330"/>
+      <c r="E39" s="328"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="328"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="330"/>
-      <c r="F40" s="330"/>
-      <c r="G40" s="330"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
-      <c r="J40" s="330"/>
+      <c r="E40" s="328"/>
+      <c r="F40" s="328"/>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="330"/>
-      <c r="F41" s="330"/>
-      <c r="G41" s="330"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
-      <c r="J41" s="330"/>
+      <c r="E41" s="328"/>
+      <c r="F41" s="328"/>
+      <c r="G41" s="328"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="328"/>
+      <c r="J41" s="328"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="330"/>
-      <c r="F42" s="330"/>
-      <c r="G42" s="330"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
-      <c r="J42" s="330"/>
+      <c r="E42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -10543,8 +10493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="H7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10571,12 +10521,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
       <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
@@ -10614,10 +10564,10 @@
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
       <c r="E2" s="46" t="s">
         <v>7</v>
       </c>
@@ -10655,18 +10605,18 @@
       <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="379"/>
-      <c r="B3" s="380"/>
-      <c r="C3" s="380"/>
-      <c r="D3" s="380"/>
-      <c r="E3" s="380"/>
-      <c r="F3" s="380"/>
-      <c r="G3" s="380"/>
-      <c r="H3" s="380"/>
-      <c r="I3" s="380"/>
-      <c r="J3" s="380"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="381"/>
+      <c r="A3" s="374"/>
+      <c r="B3" s="375"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="375"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="375"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="376"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -10680,10 +10630,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="306" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C4" s="306" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>46</v>
@@ -10706,12 +10656,12 @@
       <c r="J4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="376" t="s">
+      <c r="K4" s="371" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="377"/>
-      <c r="M4" s="377"/>
-      <c r="N4" s="378"/>
+      <c r="L4" s="372"/>
+      <c r="M4" s="372"/>
+      <c r="N4" s="373"/>
       <c r="O4" s="66" t="s">
         <v>44</v>
       </c>
@@ -10747,12 +10697,12 @@
       <c r="J5" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="K5" s="383" t="s">
+      <c r="K5" s="378" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="384"/>
-      <c r="M5" s="384"/>
-      <c r="N5" s="385"/>
+      <c r="L5" s="379"/>
+      <c r="M5" s="379"/>
+      <c r="N5" s="380"/>
       <c r="O5" s="162"/>
       <c r="P5" s="161"/>
       <c r="Q5" s="166" t="s">
@@ -10782,12 +10732,12 @@
       <c r="J6" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="K6" s="386" t="s">
+      <c r="K6" s="381" t="s">
         <v>228</v>
       </c>
-      <c r="L6" s="387"/>
-      <c r="M6" s="387"/>
-      <c r="N6" s="388"/>
+      <c r="L6" s="382"/>
+      <c r="M6" s="382"/>
+      <c r="N6" s="383"/>
       <c r="O6" s="183" t="s">
         <v>230</v>
       </c>
@@ -10817,12 +10767,12 @@
       <c r="J7" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="K7" s="386" t="s">
+      <c r="K7" s="381" t="s">
         <v>246</v>
       </c>
-      <c r="L7" s="387"/>
-      <c r="M7" s="387"/>
-      <c r="N7" s="388"/>
+      <c r="L7" s="382"/>
+      <c r="M7" s="382"/>
+      <c r="N7" s="383"/>
       <c r="O7" s="187" t="s">
         <v>234</v>
       </c>
@@ -10852,12 +10802,12 @@
       <c r="J8" s="162" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="383" t="s">
+      <c r="K8" s="378" t="s">
         <v>245</v>
       </c>
-      <c r="L8" s="384"/>
-      <c r="M8" s="384"/>
-      <c r="N8" s="385"/>
+      <c r="L8" s="379"/>
+      <c r="M8" s="379"/>
+      <c r="N8" s="380"/>
       <c r="O8" s="155"/>
       <c r="P8" s="155"/>
       <c r="Q8" s="155"/>
@@ -10877,12 +10827,12 @@
       <c r="H9" s="195"/>
       <c r="I9" s="195"/>
       <c r="J9" s="196"/>
-      <c r="K9" s="389" t="s">
+      <c r="K9" s="384" t="s">
         <v>252</v>
       </c>
-      <c r="L9" s="390"/>
-      <c r="M9" s="390"/>
-      <c r="N9" s="391"/>
+      <c r="L9" s="385"/>
+      <c r="M9" s="385"/>
+      <c r="N9" s="386"/>
       <c r="O9" s="197" t="s">
         <v>253</v>
       </c>
@@ -10912,12 +10862,12 @@
       <c r="J10" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="K10" s="318" t="s">
+      <c r="K10" s="316" t="s">
         <v>308</v>
       </c>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="320"/>
+      <c r="L10" s="317"/>
+      <c r="M10" s="317"/>
+      <c r="N10" s="318"/>
       <c r="O10" s="225" t="s">
         <v>297</v>
       </c>
@@ -10947,12 +10897,12 @@
       <c r="J11" s="225" t="s">
         <v>287</v>
       </c>
-      <c r="K11" s="395" t="s">
+      <c r="K11" s="391" t="s">
         <v>309</v>
       </c>
-      <c r="L11" s="396"/>
-      <c r="M11" s="396"/>
-      <c r="N11" s="397"/>
+      <c r="L11" s="392"/>
+      <c r="M11" s="392"/>
+      <c r="N11" s="393"/>
       <c r="O11" s="225" t="s">
         <v>297</v>
       </c>
@@ -10982,12 +10932,12 @@
       <c r="J12" s="225" t="s">
         <v>302</v>
       </c>
-      <c r="K12" s="398" t="s">
+      <c r="K12" s="394" t="s">
         <v>311</v>
       </c>
-      <c r="L12" s="399"/>
-      <c r="M12" s="399"/>
-      <c r="N12" s="400"/>
+      <c r="L12" s="395"/>
+      <c r="M12" s="395"/>
+      <c r="N12" s="396"/>
       <c r="O12" s="255" t="s">
         <v>303</v>
       </c>
@@ -11017,12 +10967,12 @@
       <c r="J13" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="K13" s="401" t="s">
+      <c r="K13" s="397" t="s">
         <v>318</v>
       </c>
-      <c r="L13" s="402"/>
-      <c r="M13" s="402"/>
-      <c r="N13" s="403"/>
+      <c r="L13" s="398"/>
+      <c r="M13" s="398"/>
+      <c r="N13" s="399"/>
       <c r="O13" s="266" t="s">
         <v>319</v>
       </c>
@@ -11052,12 +11002,12 @@
       <c r="J14" s="261" t="s">
         <v>331</v>
       </c>
-      <c r="K14" s="401" t="s">
+      <c r="K14" s="397" t="s">
         <v>322</v>
       </c>
-      <c r="L14" s="402"/>
-      <c r="M14" s="402"/>
-      <c r="N14" s="403"/>
+      <c r="L14" s="398"/>
+      <c r="M14" s="398"/>
+      <c r="N14" s="399"/>
       <c r="O14" s="269" t="s">
         <v>323</v>
       </c>
@@ -11087,12 +11037,12 @@
       <c r="J15" s="261" t="s">
         <v>332</v>
       </c>
-      <c r="K15" s="401" t="s">
+      <c r="K15" s="397" t="s">
         <v>326</v>
       </c>
-      <c r="L15" s="402"/>
-      <c r="M15" s="402"/>
-      <c r="N15" s="403"/>
+      <c r="L15" s="398"/>
+      <c r="M15" s="398"/>
+      <c r="N15" s="399"/>
       <c r="O15" s="262"/>
       <c r="P15" s="262"/>
       <c r="Q15" s="262"/>
@@ -11122,12 +11072,12 @@
       <c r="J16" s="293" t="s">
         <v>348</v>
       </c>
-      <c r="K16" s="404" t="s">
+      <c r="K16" s="400" t="s">
         <v>339</v>
       </c>
-      <c r="L16" s="405"/>
-      <c r="M16" s="405"/>
-      <c r="N16" s="406"/>
+      <c r="L16" s="401"/>
+      <c r="M16" s="401"/>
+      <c r="N16" s="402"/>
       <c r="O16" s="294" t="s">
         <v>340</v>
       </c>
@@ -11163,12 +11113,12 @@
       <c r="J17" s="293" t="s">
         <v>349</v>
       </c>
-      <c r="K17" s="404" t="s">
+      <c r="K17" s="400" t="s">
         <v>345</v>
       </c>
-      <c r="L17" s="405"/>
-      <c r="M17" s="405"/>
-      <c r="N17" s="406"/>
+      <c r="L17" s="401"/>
+      <c r="M17" s="401"/>
+      <c r="N17" s="402"/>
       <c r="O17" s="294" t="s">
         <v>346</v>
       </c>
@@ -11181,50 +11131,50 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="315" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="316"/>
-      <c r="B18" s="316" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" s="316">
+    <row r="18" spans="1:19" s="313" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="314"/>
+      <c r="B18" s="314" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="314">
         <v>51</v>
       </c>
       <c r="D18" s="308" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="311"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="310" t="s">
+        <v>361</v>
+      </c>
+      <c r="H18" s="310" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="310" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="315" t="s">
+        <v>359</v>
+      </c>
+      <c r="K18" s="387" t="s">
+        <v>362</v>
+      </c>
+      <c r="L18" s="388"/>
+      <c r="M18" s="388"/>
+      <c r="N18" s="389"/>
+      <c r="O18" s="309" t="s">
+        <v>363</v>
+      </c>
+      <c r="P18" s="309" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="313"/>
-      <c r="F18" s="307"/>
-      <c r="G18" s="312" t="s">
-        <v>365</v>
-      </c>
-      <c r="H18" s="312" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" s="312" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="317" t="s">
-        <v>363</v>
-      </c>
-      <c r="K18" s="392" t="s">
-        <v>366</v>
-      </c>
-      <c r="L18" s="393"/>
-      <c r="M18" s="393"/>
-      <c r="N18" s="394"/>
-      <c r="O18" s="311" t="s">
-        <v>367</v>
-      </c>
-      <c r="P18" s="311" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q18" s="314" t="s">
+      <c r="Q18" s="312" t="s">
         <v>358</v>
       </c>
-      <c r="R18" s="314" t="s">
+      <c r="R18" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="S18" s="312" t="s">
+      <c r="S18" s="310" t="s">
         <v>369</v>
       </c>
     </row>
@@ -11239,10 +11189,10 @@
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
-      <c r="K19" s="368"/>
-      <c r="L19" s="369"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="370"/>
+      <c r="K19" s="390"/>
+      <c r="L19" s="390"/>
+      <c r="M19" s="390"/>
+      <c r="N19" s="390"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="60"/>
@@ -11256,12 +11206,12 @@
       <c r="D20" s="19"/>
       <c r="E20" s="57"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="324"/>
-      <c r="H20" s="324"/>
-      <c r="I20" s="324"/>
-      <c r="J20" s="324"/>
-      <c r="K20" s="324"/>
-      <c r="L20" s="324"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
       <c r="M20" s="60"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -11277,12 +11227,12 @@
       <c r="D21" s="19"/>
       <c r="E21" s="57"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="324"/>
-      <c r="I21" s="324"/>
-      <c r="J21" s="324"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="324"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="322"/>
+      <c r="L21" s="322"/>
       <c r="M21" s="60"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -11298,12 +11248,12 @@
       <c r="D22" s="19"/>
       <c r="E22" s="57"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="324"/>
-      <c r="J22" s="324"/>
-      <c r="K22" s="324"/>
-      <c r="L22" s="324"/>
+      <c r="G22" s="322"/>
+      <c r="H22" s="322"/>
+      <c r="I22" s="322"/>
+      <c r="J22" s="322"/>
+      <c r="K22" s="322"/>
+      <c r="L22" s="322"/>
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -11319,12 +11269,12 @@
       <c r="D23" s="19"/>
       <c r="E23" s="57"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="324"/>
-      <c r="I23" s="324"/>
-      <c r="J23" s="324"/>
-      <c r="K23" s="324"/>
-      <c r="L23" s="324"/>
+      <c r="G23" s="322"/>
+      <c r="H23" s="322"/>
+      <c r="I23" s="322"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="322"/>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -11340,12 +11290,12 @@
       <c r="D24" s="19"/>
       <c r="E24" s="57"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="324"/>
-      <c r="H24" s="324"/>
-      <c r="I24" s="324"/>
-      <c r="J24" s="324"/>
-      <c r="K24" s="324"/>
-      <c r="L24" s="324"/>
+      <c r="G24" s="322"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="322"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="322"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -11361,12 +11311,12 @@
       <c r="D25" s="19"/>
       <c r="E25" s="57"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="324"/>
-      <c r="H25" s="324"/>
-      <c r="I25" s="324"/>
-      <c r="J25" s="324"/>
-      <c r="K25" s="324"/>
-      <c r="L25" s="324"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="322"/>
+      <c r="L25" s="322"/>
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -11382,12 +11332,12 @@
       <c r="D26" s="19"/>
       <c r="E26" s="57"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="324"/>
-      <c r="H26" s="324"/>
-      <c r="I26" s="324"/>
-      <c r="J26" s="324"/>
-      <c r="K26" s="324"/>
-      <c r="L26" s="324"/>
+      <c r="G26" s="322"/>
+      <c r="H26" s="322"/>
+      <c r="I26" s="322"/>
+      <c r="J26" s="322"/>
+      <c r="K26" s="322"/>
+      <c r="L26" s="322"/>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -11403,12 +11353,12 @@
       <c r="D27" s="19"/>
       <c r="E27" s="57"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="324"/>
-      <c r="I27" s="324"/>
-      <c r="J27" s="324"/>
-      <c r="K27" s="324"/>
-      <c r="L27" s="324"/>
+      <c r="G27" s="322"/>
+      <c r="H27" s="322"/>
+      <c r="I27" s="322"/>
+      <c r="J27" s="322"/>
+      <c r="K27" s="322"/>
+      <c r="L27" s="322"/>
       <c r="M27" s="60"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -11424,12 +11374,12 @@
       <c r="D28" s="39"/>
       <c r="E28" s="42"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="382"/>
-      <c r="I28" s="382"/>
-      <c r="J28" s="382"/>
-      <c r="K28" s="382"/>
-      <c r="L28" s="382"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="377"/>
+      <c r="I28" s="377"/>
+      <c r="J28" s="377"/>
+      <c r="K28" s="377"/>
+      <c r="L28" s="377"/>
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
@@ -11438,12 +11388,12 @@
       <c r="D29" s="39"/>
       <c r="E29" s="42"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="382"/>
-      <c r="H29" s="382"/>
-      <c r="I29" s="382"/>
-      <c r="J29" s="382"/>
-      <c r="K29" s="382"/>
-      <c r="L29" s="382"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="377"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="377"/>
+      <c r="K29" s="377"/>
+      <c r="L29" s="377"/>
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -11452,12 +11402,12 @@
       <c r="D30" s="39"/>
       <c r="E30" s="42"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="382"/>
-      <c r="H30" s="382"/>
-      <c r="I30" s="382"/>
-      <c r="J30" s="382"/>
-      <c r="K30" s="382"/>
-      <c r="L30" s="382"/>
+      <c r="G30" s="377"/>
+      <c r="H30" s="377"/>
+      <c r="I30" s="377"/>
+      <c r="J30" s="377"/>
+      <c r="K30" s="377"/>
+      <c r="L30" s="377"/>
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -11466,12 +11416,12 @@
       <c r="D31" s="39"/>
       <c r="E31" s="42"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="382"/>
-      <c r="H31" s="382"/>
-      <c r="I31" s="382"/>
-      <c r="J31" s="382"/>
-      <c r="K31" s="382"/>
-      <c r="L31" s="382"/>
+      <c r="G31" s="377"/>
+      <c r="H31" s="377"/>
+      <c r="I31" s="377"/>
+      <c r="J31" s="377"/>
+      <c r="K31" s="377"/>
+      <c r="L31" s="377"/>
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -11480,12 +11430,12 @@
       <c r="D32" s="39"/>
       <c r="E32" s="42"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="382"/>
-      <c r="H32" s="382"/>
-      <c r="I32" s="382"/>
-      <c r="J32" s="382"/>
-      <c r="K32" s="382"/>
-      <c r="L32" s="382"/>
+      <c r="G32" s="377"/>
+      <c r="H32" s="377"/>
+      <c r="I32" s="377"/>
+      <c r="J32" s="377"/>
+      <c r="K32" s="377"/>
+      <c r="L32" s="377"/>
     </row>
     <row r="33" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -11494,12 +11444,12 @@
       <c r="D33" s="39"/>
       <c r="E33" s="42"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="382"/>
-      <c r="H33" s="382"/>
-      <c r="I33" s="382"/>
-      <c r="J33" s="382"/>
-      <c r="K33" s="382"/>
-      <c r="L33" s="382"/>
+      <c r="G33" s="377"/>
+      <c r="H33" s="377"/>
+      <c r="I33" s="377"/>
+      <c r="J33" s="377"/>
+      <c r="K33" s="377"/>
+      <c r="L33" s="377"/>
     </row>
     <row r="34" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
@@ -11508,12 +11458,12 @@
       <c r="D34" s="39"/>
       <c r="E34" s="42"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="382"/>
-      <c r="H34" s="382"/>
-      <c r="I34" s="382"/>
-      <c r="J34" s="382"/>
-      <c r="K34" s="382"/>
-      <c r="L34" s="382"/>
+      <c r="G34" s="377"/>
+      <c r="H34" s="377"/>
+      <c r="I34" s="377"/>
+      <c r="J34" s="377"/>
+      <c r="K34" s="377"/>
+      <c r="L34" s="377"/>
     </row>
     <row r="35" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
@@ -11522,12 +11472,12 @@
       <c r="D35" s="39"/>
       <c r="E35" s="42"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="382"/>
-      <c r="H35" s="382"/>
-      <c r="I35" s="382"/>
-      <c r="J35" s="382"/>
-      <c r="K35" s="382"/>
-      <c r="L35" s="382"/>
+      <c r="G35" s="377"/>
+      <c r="H35" s="377"/>
+      <c r="I35" s="377"/>
+      <c r="J35" s="377"/>
+      <c r="K35" s="377"/>
+      <c r="L35" s="377"/>
     </row>
     <row r="36" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -11536,12 +11486,12 @@
       <c r="D36" s="39"/>
       <c r="E36" s="42"/>
       <c r="F36" s="38"/>
-      <c r="G36" s="382"/>
-      <c r="H36" s="382"/>
-      <c r="I36" s="382"/>
-      <c r="J36" s="382"/>
-      <c r="K36" s="382"/>
-      <c r="L36" s="382"/>
+      <c r="G36" s="377"/>
+      <c r="H36" s="377"/>
+      <c r="I36" s="377"/>
+      <c r="J36" s="377"/>
+      <c r="K36" s="377"/>
+      <c r="L36" s="377"/>
     </row>
     <row r="37" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
@@ -11550,12 +11500,12 @@
       <c r="D37" s="39"/>
       <c r="E37" s="42"/>
       <c r="F37" s="38"/>
-      <c r="G37" s="382"/>
-      <c r="H37" s="382"/>
-      <c r="I37" s="382"/>
-      <c r="J37" s="382"/>
-      <c r="K37" s="382"/>
-      <c r="L37" s="382"/>
+      <c r="G37" s="377"/>
+      <c r="H37" s="377"/>
+      <c r="I37" s="377"/>
+      <c r="J37" s="377"/>
+      <c r="K37" s="377"/>
+      <c r="L37" s="377"/>
     </row>
     <row r="38" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -11564,12 +11514,12 @@
       <c r="D38" s="39"/>
       <c r="E38" s="42"/>
       <c r="F38" s="38"/>
-      <c r="G38" s="382"/>
-      <c r="H38" s="382"/>
-      <c r="I38" s="382"/>
-      <c r="J38" s="382"/>
-      <c r="K38" s="382"/>
-      <c r="L38" s="382"/>
+      <c r="G38" s="377"/>
+      <c r="H38" s="377"/>
+      <c r="I38" s="377"/>
+      <c r="J38" s="377"/>
+      <c r="K38" s="377"/>
+      <c r="L38" s="377"/>
     </row>
     <row r="39" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
@@ -11578,12 +11528,12 @@
       <c r="D39" s="39"/>
       <c r="E39" s="42"/>
       <c r="F39" s="38"/>
-      <c r="G39" s="382"/>
-      <c r="H39" s="382"/>
-      <c r="I39" s="382"/>
-      <c r="J39" s="382"/>
-      <c r="K39" s="382"/>
-      <c r="L39" s="382"/>
+      <c r="G39" s="377"/>
+      <c r="H39" s="377"/>
+      <c r="I39" s="377"/>
+      <c r="J39" s="377"/>
+      <c r="K39" s="377"/>
+      <c r="L39" s="377"/>
     </row>
     <row r="40" spans="1:12" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
@@ -11592,12 +11542,12 @@
       <c r="D40" s="39"/>
       <c r="E40" s="42"/>
       <c r="F40" s="38"/>
-      <c r="G40" s="382"/>
-      <c r="H40" s="382"/>
-      <c r="I40" s="382"/>
-      <c r="J40" s="382"/>
-      <c r="K40" s="382"/>
-      <c r="L40" s="382"/>
+      <c r="G40" s="377"/>
+      <c r="H40" s="377"/>
+      <c r="I40" s="377"/>
+      <c r="J40" s="377"/>
+      <c r="K40" s="377"/>
+      <c r="L40" s="377"/>
     </row>
     <row r="41" spans="1:12" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -11606,12 +11556,12 @@
       <c r="D41" s="39"/>
       <c r="E41" s="42"/>
       <c r="F41" s="38"/>
-      <c r="G41" s="382"/>
-      <c r="H41" s="382"/>
-      <c r="I41" s="382"/>
-      <c r="J41" s="382"/>
-      <c r="K41" s="382"/>
-      <c r="L41" s="382"/>
+      <c r="G41" s="377"/>
+      <c r="H41" s="377"/>
+      <c r="I41" s="377"/>
+      <c r="J41" s="377"/>
+      <c r="K41" s="377"/>
+      <c r="L41" s="377"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -11679,10 +11629,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:L51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11701,11 +11651,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -11736,9 +11686,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -12510,20 +12460,20 @@
       <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="408" t="s">
-        <v>371</v>
-      </c>
-      <c r="B51" s="409"/>
-      <c r="C51" s="409"/>
-      <c r="D51" s="409"/>
-      <c r="E51" s="409"/>
-      <c r="F51" s="409"/>
-      <c r="G51" s="409"/>
-      <c r="H51" s="409"/>
-      <c r="I51" s="409"/>
-      <c r="J51" s="409"/>
-      <c r="K51" s="409"/>
-      <c r="L51" s="409"/>
+      <c r="A51" s="404" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" s="405"/>
+      <c r="C51" s="405"/>
+      <c r="D51" s="405"/>
+      <c r="E51" s="405"/>
+      <c r="F51" s="405"/>
+      <c r="G51" s="405"/>
+      <c r="H51" s="405"/>
+      <c r="I51" s="405"/>
+      <c r="J51" s="405"/>
+      <c r="K51" s="405"/>
+      <c r="L51" s="405"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A52" s="169" t="s">
@@ -12626,12 +12576,12 @@
       <c r="C58" s="39"/>
       <c r="D58" s="42"/>
       <c r="E58" s="38"/>
-      <c r="F58" s="382"/>
-      <c r="G58" s="382"/>
-      <c r="H58" s="382"/>
-      <c r="I58" s="382"/>
-      <c r="J58" s="382"/>
-      <c r="K58" s="382"/>
+      <c r="F58" s="377"/>
+      <c r="G58" s="377"/>
+      <c r="H58" s="377"/>
+      <c r="I58" s="377"/>
+      <c r="J58" s="377"/>
+      <c r="K58" s="377"/>
       <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:12" s="111" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12642,12 +12592,12 @@
       <c r="C59" s="228"/>
       <c r="D59" s="229"/>
       <c r="E59" s="230"/>
-      <c r="F59" s="407"/>
-      <c r="G59" s="407"/>
-      <c r="H59" s="407"/>
-      <c r="I59" s="407"/>
-      <c r="J59" s="407"/>
-      <c r="K59" s="407"/>
+      <c r="F59" s="403"/>
+      <c r="G59" s="403"/>
+      <c r="H59" s="403"/>
+      <c r="I59" s="403"/>
+      <c r="J59" s="403"/>
+      <c r="K59" s="403"/>
       <c r="L59" s="231"/>
     </row>
     <row r="60" spans="1:12" s="263" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -12673,12 +12623,12 @@
       <c r="C61" s="232"/>
       <c r="D61" s="233"/>
       <c r="E61" s="234"/>
-      <c r="F61" s="407"/>
-      <c r="G61" s="407"/>
-      <c r="H61" s="407"/>
-      <c r="I61" s="407"/>
-      <c r="J61" s="407"/>
-      <c r="K61" s="407"/>
+      <c r="F61" s="403"/>
+      <c r="G61" s="403"/>
+      <c r="H61" s="403"/>
+      <c r="I61" s="403"/>
+      <c r="J61" s="403"/>
+      <c r="K61" s="403"/>
       <c r="L61" s="235"/>
     </row>
     <row r="62" spans="1:12" s="111" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -12714,71 +12664,66 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="217" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="244" t="s">
+    <row r="66" spans="1:12" s="410" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="410" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="411"/>
+      <c r="C66" s="410" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="217" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="244" t="s">
         <v>295</v>
       </c>
-      <c r="H66" s="217" t="s">
+      <c r="H67" s="217" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="243" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="245" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="243" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="245" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="243" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="245" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="243" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="247" t="s">
+    <row r="70" spans="1:12" s="243" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="247" t="s">
         <v>294</v>
-      </c>
-      <c r="D69" s="217"/>
-      <c r="E69" s="217"/>
-      <c r="F69" s="217"/>
-    </row>
-    <row r="70" spans="1:12" s="243" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="217" t="s">
-        <v>296</v>
       </c>
       <c r="D70" s="217"/>
       <c r="E70" s="217"/>
       <c r="F70" s="217"/>
     </row>
-    <row r="71" spans="1:12" s="263" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="282" t="s">
+    <row r="71" spans="1:12" s="243" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="217"/>
+      <c r="E71" s="217"/>
+      <c r="F71" s="217"/>
+    </row>
+    <row r="72" spans="1:12" s="263" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="282" t="s">
         <v>327</v>
       </c>
-      <c r="C71" s="263" t="s">
+      <c r="C72" s="263" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="224" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="257" t="s">
+    <row r="73" spans="1:12" s="224" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="257" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="224" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="258" t="s">
+    <row r="74" spans="1:12" s="224" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="258" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
     </row>
     <row r="75" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
@@ -12807,6 +12752,20 @@
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12851,11 +12810,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
       <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
@@ -12878,9 +12837,9 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
+      <c r="A2" s="319"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
       <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
@@ -13250,12 +13209,12 @@
       <c r="C28" s="39"/>
       <c r="D28" s="42"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="382"/>
-      <c r="G28" s="382"/>
-      <c r="H28" s="382"/>
-      <c r="I28" s="382"/>
-      <c r="J28" s="382"/>
-      <c r="K28" s="382"/>
+      <c r="F28" s="377"/>
+      <c r="G28" s="377"/>
+      <c r="H28" s="377"/>
+      <c r="I28" s="377"/>
+      <c r="J28" s="377"/>
+      <c r="K28" s="377"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -13264,12 +13223,12 @@
       <c r="C29" s="39"/>
       <c r="D29" s="42"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="382"/>
-      <c r="G29" s="382"/>
-      <c r="H29" s="382"/>
-      <c r="I29" s="382"/>
-      <c r="J29" s="382"/>
-      <c r="K29" s="382"/>
+      <c r="F29" s="377"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="377"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="377"/>
+      <c r="K29" s="377"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
@@ -13278,12 +13237,12 @@
       <c r="C30" s="39"/>
       <c r="D30" s="42"/>
       <c r="E30" s="38"/>
-      <c r="F30" s="382"/>
-      <c r="G30" s="382"/>
-      <c r="H30" s="382"/>
-      <c r="I30" s="382"/>
-      <c r="J30" s="382"/>
-      <c r="K30" s="382"/>
+      <c r="F30" s="377"/>
+      <c r="G30" s="377"/>
+      <c r="H30" s="377"/>
+      <c r="I30" s="377"/>
+      <c r="J30" s="377"/>
+      <c r="K30" s="377"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13292,12 +13251,12 @@
       <c r="C31" s="39"/>
       <c r="D31" s="42"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="382"/>
-      <c r="G31" s="382"/>
-      <c r="H31" s="382"/>
-      <c r="I31" s="382"/>
-      <c r="J31" s="382"/>
-      <c r="K31" s="382"/>
+      <c r="F31" s="377"/>
+      <c r="G31" s="377"/>
+      <c r="H31" s="377"/>
+      <c r="I31" s="377"/>
+      <c r="J31" s="377"/>
+      <c r="K31" s="377"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -13517,14 +13476,14 @@
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
-      <c r="E2" s="410" t="s">
+      <c r="E2" s="406" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
-      <c r="J2" s="410"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
+      <c r="H2" s="406"/>
+      <c r="I2" s="406"/>
+      <c r="J2" s="406"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
@@ -13945,11 +13904,11 @@
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="411" t="s">
+      <c r="E28" s="407" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="412"/>
-      <c r="G28" s="413"/>
+      <c r="F28" s="408"/>
+      <c r="G28" s="409"/>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
